--- a/Packet.xlsx
+++ b/Packet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TULA_KT01\Desktop\4P _ Saban WI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TULA_KT01\Desktop\github\Saban_Wi_V3_LoraPhy_NoBootloader\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22185" windowHeight="9705"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22185" windowHeight="9705"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="145">
   <si>
     <t xml:space="preserve">Địa chỉ Slave </t>
   </si>
@@ -405,15 +405,6 @@
     <t>1-&gt;255</t>
   </si>
   <si>
-    <t>CRC/Checksum</t>
-  </si>
-  <si>
-    <t>CRC16/Checksum 16</t>
-  </si>
-  <si>
-    <t>61bit</t>
-  </si>
-  <si>
     <t>CLIENT -&gt; MASTER (NORMAL)</t>
   </si>
   <si>
@@ -421,9 +412,6 @@
   </si>
   <si>
     <t>11 : I2C/HMI Status</t>
-  </si>
-  <si>
-    <t>CRC16/Checksum</t>
   </si>
   <si>
     <t>0x01 : HMI Status</t>
@@ -445,24 +433,15 @@
     <t>8bit [0]</t>
   </si>
   <si>
-    <t>16bit [65] … [66]</t>
-  </si>
-  <si>
     <t>8bit   [0]</t>
   </si>
   <si>
     <t>8bit  [1]</t>
   </si>
   <si>
-    <t xml:space="preserve">61bit  </t>
-  </si>
-  <si>
     <t xml:space="preserve">60 byte </t>
   </si>
   <si>
-    <t>Hmi_Data [3] … [60]</t>
-  </si>
-  <si>
     <t xml:space="preserve">HMI _State </t>
   </si>
   <si>
@@ -476,12 +455,6 @@
   </si>
   <si>
     <t>HMI _DATA</t>
-  </si>
-  <si>
-    <t>58 bit [4] … [61]</t>
-  </si>
-  <si>
-    <t>16bit [62] … [63]</t>
   </si>
   <si>
     <t xml:space="preserve">User/Pass/Nhap lieu </t>
@@ -498,6 +471,21 @@
 REQUEST : 2
 GET_STATUS : 3
 RES_STATUS : 4</t>
+  </si>
+  <si>
+    <t>60bit</t>
+  </si>
+  <si>
+    <t>Hmi_Data [3] … [63]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60bit  </t>
+  </si>
+  <si>
+    <t>8 bit [4]</t>
+  </si>
+  <si>
+    <t>58 bit [5] … [63]</t>
   </si>
 </sst>
 </file>
@@ -786,7 +774,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -937,10 +925,100 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -955,176 +1033,134 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2938,8 +2974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:N170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73:G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -2985,18 +3021,18 @@
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="2:14" ht="36.950000000000003" customHeight="1">
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
       <c r="E5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="64"/>
+      <c r="G5" s="66"/>
       <c r="H5" s="1" t="s">
         <v>28</v>
       </c>
@@ -3007,18 +3043,18 @@
       <c r="N5" s="7"/>
     </row>
     <row r="6" spans="2:14" ht="24" customHeight="1">
-      <c r="B6" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
+      <c r="B6" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
       <c r="E6" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F6" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="65"/>
+      <c r="G6" s="69"/>
       <c r="H6" s="2" t="s">
         <v>11</v>
       </c>
@@ -3039,16 +3075,16 @@
       <c r="D7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="66" t="s">
+      <c r="E7" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="66" t="s">
-        <v>131</v>
-      </c>
-      <c r="G7" s="66" t="s">
+      <c r="F7" s="70" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="50" t="s">
+      <c r="H7" s="75" t="s">
         <v>23</v>
       </c>
       <c r="I7" s="11"/>
@@ -3068,10 +3104,10 @@
       <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="74"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="76"/>
       <c r="I8" s="11"/>
       <c r="J8" s="19"/>
       <c r="K8" s="8"/>
@@ -3080,16 +3116,16 @@
       <c r="N8" s="8"/>
     </row>
     <row r="9" spans="2:14" ht="23.25" customHeight="1">
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="74" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="75" t="s">
+      <c r="D9" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="63" t="s">
+      <c r="E9" s="74" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="4" t="s">
@@ -3098,7 +3134,7 @@
       <c r="G9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="74"/>
+      <c r="H9" s="76"/>
       <c r="I9" s="11"/>
       <c r="J9" s="19"/>
       <c r="K9" s="8"/>
@@ -3107,19 +3143,19 @@
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="2:14" ht="24" customHeight="1">
-      <c r="B10" s="63"/>
+      <c r="B10" s="74"/>
       <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="63"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="74"/>
       <c r="F10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="76" t="s">
+      <c r="G10" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="74"/>
+      <c r="H10" s="76"/>
       <c r="I10" s="11"/>
       <c r="J10" s="19"/>
       <c r="K10" s="8"/>
@@ -3128,54 +3164,54 @@
       <c r="N10" s="8"/>
     </row>
     <row r="11" spans="2:14" ht="20.25">
-      <c r="B11" s="63"/>
-      <c r="C11" s="79" t="s">
+      <c r="B11" s="74"/>
+      <c r="C11" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="67"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="75" t="s">
+      <c r="D11" s="53"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="77"/>
-      <c r="H11" s="74"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="76"/>
       <c r="I11" s="11"/>
       <c r="J11" s="19"/>
     </row>
     <row r="12" spans="2:14" ht="20.25">
-      <c r="B12" s="63"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="74"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="76"/>
       <c r="I12" s="11"/>
       <c r="J12" s="19"/>
     </row>
     <row r="13" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B13" s="63"/>
-      <c r="C13" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="D13" s="67"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="G13" s="77"/>
-      <c r="H13" s="74"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="53"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="84" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" s="79"/>
+      <c r="H13" s="76"/>
       <c r="I13" s="11"/>
       <c r="J13" s="19"/>
     </row>
     <row r="14" spans="2:14" ht="42" customHeight="1">
-      <c r="B14" s="63"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="51"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="77"/>
       <c r="I14" s="11"/>
       <c r="J14" s="19"/>
     </row>
@@ -3188,64 +3224,62 @@
       <c r="C16" s="8"/>
     </row>
     <row r="17" spans="2:9" ht="23.25">
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
     </row>
     <row r="18" spans="2:9" ht="23.25">
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
     </row>
     <row r="19" spans="2:9" ht="23.25">
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
       <c r="E19" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="56" t="s">
+      <c r="F19" s="116"/>
+      <c r="G19" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="48" t="s">
-        <v>120</v>
-      </c>
+      <c r="H19" s="115"/>
+      <c r="I19" s="48"/>
     </row>
     <row r="20" spans="2:9" ht="23.25">
-      <c r="B20" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
+      <c r="B20" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
       <c r="E20" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="F20" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="49" t="s">
-        <v>133</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="F20" s="117" t="s">
+        <v>127</v>
+      </c>
+      <c r="G20" s="118" t="s">
+        <v>140</v>
+      </c>
+      <c r="H20" s="119"/>
+      <c r="I20" s="49"/>
     </row>
     <row r="21" spans="2:9" ht="23.25">
       <c r="B21" s="47" t="s">
@@ -3257,19 +3291,17 @@
       <c r="D21" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="58" t="s">
+      <c r="E21" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="101" t="s">
-        <v>131</v>
-      </c>
-      <c r="G21" s="103" t="s">
-        <v>138</v>
-      </c>
-      <c r="H21" s="104"/>
-      <c r="I21" s="58" t="s">
-        <v>126</v>
-      </c>
+      <c r="F21" s="112" t="s">
+        <v>127</v>
+      </c>
+      <c r="G21" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="H21" s="57"/>
+      <c r="I21" s="110"/>
     </row>
     <row r="22" spans="2:9" ht="23.25">
       <c r="B22" s="47" t="s">
@@ -3281,73 +3313,73 @@
       <c r="D22" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="58"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="58"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="110"/>
     </row>
     <row r="23" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="D23" s="62" t="s">
+      <c r="C23" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="60" t="s">
+      <c r="E23" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="G23" s="107" t="s">
-        <v>137</v>
-      </c>
-      <c r="H23" s="108"/>
-      <c r="I23" s="58"/>
+      <c r="F23" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="H23" s="61"/>
+      <c r="I23" s="110"/>
     </row>
     <row r="24" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B24" s="60"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="109"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="58"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="110"/>
     </row>
     <row r="25" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B25" s="60"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="110"/>
-      <c r="I25" s="58"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="110"/>
     </row>
     <row r="26" spans="2:9" ht="26.25" customHeight="1">
-      <c r="B26" s="60"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="109"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="58"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="110"/>
     </row>
     <row r="27" spans="2:9" ht="45" customHeight="1">
-      <c r="B27" s="60"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="111"/>
-      <c r="H27" s="112"/>
-      <c r="I27" s="58"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="110"/>
     </row>
     <row r="28" spans="2:9">
       <c r="C28" s="8"/>
@@ -3370,7 +3402,7 @@
     </row>
     <row r="52" spans="2:10" ht="30.75" customHeight="1">
       <c r="B52" s="73" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C52" s="73"/>
       <c r="D52" s="73"/>
@@ -3395,18 +3427,18 @@
       <c r="J53" s="11"/>
     </row>
     <row r="54" spans="2:10" ht="39" customHeight="1">
-      <c r="B54" s="64" t="s">
+      <c r="B54" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="64"/>
-      <c r="D54" s="64"/>
+      <c r="C54" s="66"/>
+      <c r="D54" s="66"/>
       <c r="E54" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F54" s="64" t="s">
+      <c r="F54" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="G54" s="64"/>
+      <c r="G54" s="66"/>
       <c r="H54" s="1" t="s">
         <v>28</v>
       </c>
@@ -3414,18 +3446,18 @@
       <c r="J54" s="12"/>
     </row>
     <row r="55" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B55" s="65" t="s">
+      <c r="B55" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="65"/>
-      <c r="D55" s="65"/>
+      <c r="C55" s="69"/>
+      <c r="D55" s="69"/>
       <c r="E55" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F55" s="65" t="s">
+      <c r="F55" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="G55" s="65"/>
+      <c r="G55" s="69"/>
       <c r="H55" s="2" t="s">
         <v>11</v>
       </c>
@@ -3442,16 +3474,16 @@
       <c r="D56" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E56" s="66" t="s">
+      <c r="E56" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="F56" s="66" t="s">
+      <c r="F56" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="G56" s="66" t="s">
+      <c r="G56" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="H56" s="50" t="s">
+      <c r="H56" s="75" t="s">
         <v>23</v>
       </c>
       <c r="I56" s="12"/>
@@ -3467,113 +3499,113 @@
       <c r="D57" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E57" s="66"/>
-      <c r="F57" s="66"/>
-      <c r="G57" s="66"/>
-      <c r="H57" s="74"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="70"/>
+      <c r="G57" s="70"/>
+      <c r="H57" s="76"/>
       <c r="I57" s="11"/>
       <c r="J57" s="11"/>
     </row>
     <row r="58" spans="2:10" ht="20.25" customHeight="1">
-      <c r="B58" s="63" t="s">
+      <c r="B58" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="C58" s="52" t="s">
+      <c r="C58" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="75" t="s">
+      <c r="D58" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="E58" s="63" t="s">
+      <c r="E58" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="F58" s="80" t="s">
+      <c r="F58" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="G58" s="81"/>
-      <c r="H58" s="74"/>
+      <c r="G58" s="87"/>
+      <c r="H58" s="76"/>
       <c r="I58" s="11"/>
       <c r="J58" s="11"/>
     </row>
     <row r="59" spans="2:10" ht="20.25" customHeight="1">
-      <c r="B59" s="63"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="75"/>
-      <c r="E59" s="63"/>
-      <c r="F59" s="85" t="s">
+      <c r="B59" s="74"/>
+      <c r="C59" s="83"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="G59" s="86"/>
-      <c r="H59" s="74"/>
+      <c r="G59" s="89"/>
+      <c r="H59" s="76"/>
       <c r="I59" s="11"/>
       <c r="J59" s="11"/>
     </row>
     <row r="60" spans="2:10" ht="20.25">
-      <c r="B60" s="63"/>
+      <c r="B60" s="74"/>
       <c r="C60" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="67"/>
-      <c r="E60" s="63"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="74"/>
       <c r="F60" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G60" s="76" t="s">
+      <c r="G60" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="H60" s="74"/>
+      <c r="H60" s="76"/>
       <c r="I60" s="11"/>
       <c r="J60" s="11"/>
     </row>
     <row r="61" spans="2:10" ht="20.25" customHeight="1">
-      <c r="B61" s="63"/>
-      <c r="C61" s="79" t="s">
+      <c r="B61" s="74"/>
+      <c r="C61" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="D61" s="67"/>
-      <c r="E61" s="63"/>
-      <c r="F61" s="75" t="s">
+      <c r="D61" s="53"/>
+      <c r="E61" s="74"/>
+      <c r="F61" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="G61" s="77"/>
-      <c r="H61" s="74"/>
+      <c r="G61" s="79"/>
+      <c r="H61" s="76"/>
       <c r="I61" s="11"/>
       <c r="J61" s="11"/>
     </row>
     <row r="62" spans="2:10" ht="20.25">
-      <c r="B62" s="63"/>
-      <c r="C62" s="79"/>
-      <c r="D62" s="67"/>
-      <c r="E62" s="63"/>
-      <c r="F62" s="67"/>
-      <c r="G62" s="77"/>
-      <c r="H62" s="74"/>
+      <c r="B62" s="74"/>
+      <c r="C62" s="71"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="74"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="79"/>
+      <c r="H62" s="76"/>
       <c r="I62" s="11"/>
       <c r="J62" s="11"/>
     </row>
     <row r="63" spans="2:10" ht="30" customHeight="1">
-      <c r="B63" s="63"/>
-      <c r="C63" s="52" t="s">
+      <c r="B63" s="74"/>
+      <c r="C63" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="D63" s="67"/>
-      <c r="E63" s="63"/>
-      <c r="F63" s="54" t="s">
+      <c r="D63" s="53"/>
+      <c r="E63" s="74"/>
+      <c r="F63" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="G63" s="77"/>
-      <c r="H63" s="74"/>
+      <c r="G63" s="79"/>
+      <c r="H63" s="76"/>
       <c r="I63" s="11"/>
       <c r="J63" s="11"/>
     </row>
     <row r="64" spans="2:10" ht="33.75" customHeight="1">
-      <c r="B64" s="63"/>
-      <c r="C64" s="53"/>
-      <c r="D64" s="67"/>
-      <c r="E64" s="63"/>
-      <c r="F64" s="55"/>
-      <c r="G64" s="78"/>
-      <c r="H64" s="51"/>
+      <c r="B64" s="74"/>
+      <c r="C64" s="83"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="74"/>
+      <c r="F64" s="85"/>
+      <c r="G64" s="80"/>
+      <c r="H64" s="77"/>
     </row>
     <row r="65" spans="2:10" ht="20.25">
       <c r="B65" s="12"/>
@@ -3595,7 +3627,7 @@
     </row>
     <row r="67" spans="2:10" ht="20.25">
       <c r="B67" s="73" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C67" s="73"/>
       <c r="D67" s="73"/>
@@ -3618,40 +3650,36 @@
       <c r="I68" s="73"/>
     </row>
     <row r="69" spans="2:10" ht="20.25">
-      <c r="B69" s="64" t="s">
+      <c r="B69" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C69" s="64"/>
-      <c r="D69" s="64"/>
+      <c r="C69" s="66"/>
+      <c r="D69" s="66"/>
       <c r="E69" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="F69" s="64" t="s">
+      <c r="F69" s="127"/>
+      <c r="G69" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="G69" s="64"/>
-      <c r="H69" s="64"/>
-      <c r="I69" s="40" t="s">
-        <v>120</v>
-      </c>
+      <c r="H69" s="121"/>
+      <c r="I69" s="122"/>
     </row>
     <row r="70" spans="2:10" ht="20.25">
-      <c r="B70" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="C70" s="65"/>
-      <c r="D70" s="65"/>
+      <c r="B70" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="C70" s="69"/>
+      <c r="D70" s="69"/>
       <c r="E70" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="F70" s="65" t="s">
-        <v>136</v>
-      </c>
-      <c r="G70" s="65"/>
-      <c r="H70" s="65"/>
-      <c r="I70" s="39" t="s">
-        <v>145</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="F70" s="128"/>
+      <c r="G70" s="123" t="s">
+        <v>142</v>
+      </c>
+      <c r="H70" s="124"/>
+      <c r="I70" s="125"/>
       <c r="J70" s="28"/>
     </row>
     <row r="71" spans="2:10" ht="23.25" customHeight="1">
@@ -3664,20 +3692,20 @@
       <c r="D71" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="E71" s="66" t="s">
+      <c r="E71" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="F71" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="G71" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="H71" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="I71" s="58" t="s">
-        <v>121</v>
+      <c r="F71" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="G71" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="H71" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="I71" s="50" t="s">
+        <v>136</v>
       </c>
       <c r="J71" s="28"/>
     </row>
@@ -3691,142 +3719,144 @@
       <c r="D72" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E72" s="66"/>
-      <c r="F72" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="G72" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="H72" s="41" t="s">
+      <c r="E72" s="70"/>
+      <c r="F72" s="77"/>
+      <c r="G72" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="H72" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="I72" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="I72" s="58"/>
       <c r="J72" s="28"/>
     </row>
     <row r="73" spans="2:10" ht="36" customHeight="1">
-      <c r="B73" s="63" t="s">
+      <c r="B73" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="C73" s="67" t="s">
+      <c r="C73" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="D73" s="67" t="s">
+      <c r="D73" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="E73" s="63" t="s">
+      <c r="E73" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="F73" s="62" t="s">
-        <v>147</v>
-      </c>
-      <c r="G73" s="75" t="s">
-        <v>148</v>
-      </c>
-      <c r="H73" s="63" t="s">
-        <v>146</v>
-      </c>
-      <c r="I73" s="58"/>
+      <c r="F73" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="G73" s="109" t="s">
+        <v>138</v>
+      </c>
+      <c r="H73" s="84" t="s">
+        <v>139</v>
+      </c>
+      <c r="I73" s="78" t="s">
+        <v>137</v>
+      </c>
       <c r="J73" s="28"/>
     </row>
     <row r="74" spans="2:10" ht="37.5" customHeight="1">
-      <c r="B74" s="63"/>
-      <c r="C74" s="67"/>
-      <c r="D74" s="67"/>
-      <c r="E74" s="63"/>
-      <c r="F74" s="59"/>
-      <c r="G74" s="75"/>
-      <c r="H74" s="63"/>
-      <c r="I74" s="58"/>
+      <c r="B74" s="74"/>
+      <c r="C74" s="53"/>
+      <c r="D74" s="53"/>
+      <c r="E74" s="74"/>
+      <c r="F74" s="55"/>
+      <c r="G74" s="55"/>
+      <c r="H74" s="126"/>
+      <c r="I74" s="79"/>
       <c r="J74" s="28"/>
     </row>
     <row r="75" spans="2:10" ht="14.25" customHeight="1">
-      <c r="B75" s="63"/>
-      <c r="C75" s="67"/>
-      <c r="D75" s="67"/>
-      <c r="E75" s="63"/>
-      <c r="F75" s="59"/>
-      <c r="G75" s="75"/>
-      <c r="H75" s="63"/>
-      <c r="I75" s="58"/>
+      <c r="B75" s="74"/>
+      <c r="C75" s="53"/>
+      <c r="D75" s="53"/>
+      <c r="E75" s="74"/>
+      <c r="F75" s="55"/>
+      <c r="G75" s="55"/>
+      <c r="H75" s="126"/>
+      <c r="I75" s="79"/>
       <c r="J75" s="28"/>
     </row>
     <row r="76" spans="2:10" ht="14.25" customHeight="1">
-      <c r="B76" s="63"/>
-      <c r="C76" s="67"/>
-      <c r="D76" s="67"/>
-      <c r="E76" s="63"/>
-      <c r="F76" s="59"/>
-      <c r="G76" s="75"/>
-      <c r="H76" s="63"/>
-      <c r="I76" s="58"/>
+      <c r="B76" s="74"/>
+      <c r="C76" s="53"/>
+      <c r="D76" s="53"/>
+      <c r="E76" s="74"/>
+      <c r="F76" s="55"/>
+      <c r="G76" s="55"/>
+      <c r="H76" s="126"/>
+      <c r="I76" s="79"/>
       <c r="J76" s="28"/>
     </row>
     <row r="77" spans="2:10" ht="56.25" customHeight="1">
-      <c r="B77" s="63"/>
-      <c r="C77" s="67"/>
-      <c r="D77" s="67"/>
-      <c r="E77" s="63"/>
-      <c r="F77" s="59"/>
-      <c r="G77" s="75"/>
-      <c r="H77" s="63"/>
-      <c r="I77" s="58"/>
+      <c r="B77" s="74"/>
+      <c r="C77" s="53"/>
+      <c r="D77" s="53"/>
+      <c r="E77" s="74"/>
+      <c r="F77" s="55"/>
+      <c r="G77" s="55"/>
+      <c r="H77" s="85"/>
+      <c r="I77" s="80"/>
       <c r="J77" s="28"/>
     </row>
     <row r="78" spans="2:10" ht="33.75" customHeight="1">
       <c r="H78" s="43"/>
     </row>
     <row r="79" spans="2:10" ht="14.25" customHeight="1">
-      <c r="C79" s="72" t="s">
+      <c r="C79" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="D79" s="72" t="s">
+      <c r="D79" s="81" t="s">
         <v>39</v>
       </c>
       <c r="H79" s="44"/>
     </row>
     <row r="80" spans="2:10" ht="14.25" customHeight="1">
-      <c r="C80" s="72"/>
-      <c r="D80" s="72"/>
+      <c r="C80" s="81"/>
+      <c r="D80" s="81"/>
       <c r="H80" s="44"/>
     </row>
     <row r="81" spans="2:10" ht="20.25">
-      <c r="C81" s="69" t="s">
+      <c r="C81" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="D81" s="69"/>
+      <c r="D81" s="91"/>
     </row>
     <row r="82" spans="2:10" ht="20.25">
-      <c r="C82" s="69" t="s">
+      <c r="C82" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="D82" s="69"/>
+      <c r="D82" s="91"/>
     </row>
     <row r="83" spans="2:10" ht="20.25">
-      <c r="C83" s="69" t="s">
+      <c r="C83" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="D83" s="69"/>
+      <c r="D83" s="91"/>
     </row>
     <row r="84" spans="2:10" ht="20.25">
-      <c r="C84" s="70" t="s">
+      <c r="C84" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="D84" s="71"/>
+      <c r="D84" s="93"/>
     </row>
     <row r="85" spans="2:10" ht="37.5" customHeight="1"/>
     <row r="86" spans="2:10" ht="27" customHeight="1">
-      <c r="B86" s="82" t="s">
+      <c r="B86" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="C86" s="83"/>
-      <c r="D86" s="83"/>
-      <c r="E86" s="83"/>
-      <c r="F86" s="83"/>
-      <c r="G86" s="83"/>
-      <c r="H86" s="83"/>
-      <c r="I86" s="83"/>
-      <c r="J86" s="84"/>
+      <c r="C86" s="95"/>
+      <c r="D86" s="95"/>
+      <c r="E86" s="95"/>
+      <c r="F86" s="95"/>
+      <c r="G86" s="95"/>
+      <c r="H86" s="95"/>
+      <c r="I86" s="95"/>
+      <c r="J86" s="96"/>
     </row>
     <row r="87" spans="2:10" ht="36" customHeight="1">
       <c r="B87" s="13" t="s">
@@ -3888,30 +3918,30 @@
       <c r="D89" s="10"/>
     </row>
     <row r="99" spans="2:10" ht="39" customHeight="1">
-      <c r="B99" s="87" t="s">
+      <c r="B99" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="C99" s="88"/>
-      <c r="D99" s="88"/>
-      <c r="E99" s="88"/>
-      <c r="F99" s="88"/>
-      <c r="G99" s="88"/>
-      <c r="H99" s="88"/>
-      <c r="I99" s="88"/>
-      <c r="J99" s="89"/>
+      <c r="C99" s="98"/>
+      <c r="D99" s="98"/>
+      <c r="E99" s="98"/>
+      <c r="F99" s="98"/>
+      <c r="G99" s="98"/>
+      <c r="H99" s="98"/>
+      <c r="I99" s="98"/>
+      <c r="J99" s="99"/>
     </row>
     <row r="100" spans="2:10" ht="36" customHeight="1">
-      <c r="B100" s="90" t="s">
+      <c r="B100" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="C100" s="91"/>
-      <c r="D100" s="91"/>
-      <c r="E100" s="91"/>
-      <c r="F100" s="91"/>
-      <c r="G100" s="91"/>
-      <c r="H100" s="91"/>
-      <c r="I100" s="91"/>
-      <c r="J100" s="92"/>
+      <c r="C100" s="101"/>
+      <c r="D100" s="101"/>
+      <c r="E100" s="101"/>
+      <c r="F100" s="101"/>
+      <c r="G100" s="101"/>
+      <c r="H100" s="101"/>
+      <c r="I100" s="101"/>
+      <c r="J100" s="102"/>
     </row>
     <row r="101" spans="2:10" ht="44.25" customHeight="1">
       <c r="B101" s="18" t="s">
@@ -3972,161 +4002,161 @@
       </c>
     </row>
     <row r="103" spans="2:10" ht="24.75" customHeight="1">
-      <c r="B103" s="93" t="s">
+      <c r="B103" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="C103" s="94" t="s">
+      <c r="C103" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="D103" s="93" t="s">
+      <c r="D103" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="E103" s="93" t="s">
+      <c r="E103" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="F103" s="93"/>
-      <c r="G103" s="94" t="s">
+      <c r="F103" s="103"/>
+      <c r="G103" s="104" t="s">
         <v>69</v>
       </c>
       <c r="H103" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="I103" s="93" t="s">
+      <c r="I103" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="J103" s="94" t="s">
+      <c r="J103" s="104" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="104" spans="2:10" ht="24.75" customHeight="1">
-      <c r="B104" s="94"/>
-      <c r="C104" s="94"/>
-      <c r="D104" s="94"/>
-      <c r="E104" s="94"/>
-      <c r="F104" s="93"/>
-      <c r="G104" s="94"/>
+      <c r="B104" s="104"/>
+      <c r="C104" s="104"/>
+      <c r="D104" s="104"/>
+      <c r="E104" s="104"/>
+      <c r="F104" s="103"/>
+      <c r="G104" s="104"/>
       <c r="H104" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I104" s="94"/>
-      <c r="J104" s="94"/>
+      <c r="I104" s="104"/>
+      <c r="J104" s="104"/>
     </row>
     <row r="105" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B105" s="94"/>
-      <c r="C105" s="94"/>
-      <c r="D105" s="94"/>
-      <c r="E105" s="94"/>
-      <c r="F105" s="93"/>
-      <c r="G105" s="94"/>
+      <c r="B105" s="104"/>
+      <c r="C105" s="104"/>
+      <c r="D105" s="104"/>
+      <c r="E105" s="104"/>
+      <c r="F105" s="103"/>
+      <c r="G105" s="104"/>
       <c r="H105" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="I105" s="94"/>
-      <c r="J105" s="94"/>
+      <c r="I105" s="104"/>
+      <c r="J105" s="104"/>
     </row>
     <row r="106" spans="2:10" ht="18">
-      <c r="B106" s="94"/>
-      <c r="C106" s="94"/>
-      <c r="D106" s="94"/>
-      <c r="E106" s="94"/>
-      <c r="F106" s="93"/>
-      <c r="G106" s="94"/>
+      <c r="B106" s="104"/>
+      <c r="C106" s="104"/>
+      <c r="D106" s="104"/>
+      <c r="E106" s="104"/>
+      <c r="F106" s="103"/>
+      <c r="G106" s="104"/>
       <c r="H106" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="I106" s="94"/>
-      <c r="J106" s="94"/>
+      <c r="I106" s="104"/>
+      <c r="J106" s="104"/>
     </row>
     <row r="107" spans="2:10" ht="18">
-      <c r="B107" s="94"/>
-      <c r="C107" s="94"/>
-      <c r="D107" s="94"/>
-      <c r="E107" s="94"/>
-      <c r="F107" s="93"/>
-      <c r="G107" s="94"/>
+      <c r="B107" s="104"/>
+      <c r="C107" s="104"/>
+      <c r="D107" s="104"/>
+      <c r="E107" s="104"/>
+      <c r="F107" s="103"/>
+      <c r="G107" s="104"/>
       <c r="H107" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="I107" s="94"/>
-      <c r="J107" s="94"/>
+      <c r="I107" s="104"/>
+      <c r="J107" s="104"/>
     </row>
     <row r="108" spans="2:10" ht="18">
-      <c r="B108" s="94"/>
-      <c r="C108" s="94"/>
-      <c r="D108" s="94"/>
-      <c r="E108" s="94"/>
-      <c r="F108" s="93"/>
-      <c r="G108" s="94"/>
+      <c r="B108" s="104"/>
+      <c r="C108" s="104"/>
+      <c r="D108" s="104"/>
+      <c r="E108" s="104"/>
+      <c r="F108" s="103"/>
+      <c r="G108" s="104"/>
       <c r="H108" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="I108" s="94"/>
-      <c r="J108" s="94"/>
+      <c r="I108" s="104"/>
+      <c r="J108" s="104"/>
     </row>
     <row r="109" spans="2:10" ht="18">
-      <c r="B109" s="94"/>
-      <c r="C109" s="94"/>
-      <c r="D109" s="94"/>
-      <c r="E109" s="94"/>
-      <c r="F109" s="93"/>
-      <c r="G109" s="94"/>
+      <c r="B109" s="104"/>
+      <c r="C109" s="104"/>
+      <c r="D109" s="104"/>
+      <c r="E109" s="104"/>
+      <c r="F109" s="103"/>
+      <c r="G109" s="104"/>
       <c r="H109" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="I109" s="94"/>
-      <c r="J109" s="94"/>
+      <c r="I109" s="104"/>
+      <c r="J109" s="104"/>
     </row>
     <row r="110" spans="2:10" ht="18">
-      <c r="B110" s="94"/>
-      <c r="C110" s="94"/>
-      <c r="D110" s="94"/>
-      <c r="E110" s="94"/>
-      <c r="F110" s="93"/>
-      <c r="G110" s="94"/>
+      <c r="B110" s="104"/>
+      <c r="C110" s="104"/>
+      <c r="D110" s="104"/>
+      <c r="E110" s="104"/>
+      <c r="F110" s="103"/>
+      <c r="G110" s="104"/>
       <c r="H110" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="I110" s="94"/>
-      <c r="J110" s="94"/>
+      <c r="I110" s="104"/>
+      <c r="J110" s="104"/>
     </row>
     <row r="111" spans="2:10" ht="18">
-      <c r="B111" s="94"/>
-      <c r="C111" s="94"/>
-      <c r="D111" s="94"/>
-      <c r="E111" s="94"/>
-      <c r="F111" s="93"/>
-      <c r="G111" s="94"/>
+      <c r="B111" s="104"/>
+      <c r="C111" s="104"/>
+      <c r="D111" s="104"/>
+      <c r="E111" s="104"/>
+      <c r="F111" s="103"/>
+      <c r="G111" s="104"/>
       <c r="H111" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="I111" s="94"/>
-      <c r="J111" s="94"/>
+      <c r="I111" s="104"/>
+      <c r="J111" s="104"/>
     </row>
     <row r="112" spans="2:10" ht="18">
-      <c r="B112" s="94"/>
-      <c r="C112" s="94"/>
-      <c r="D112" s="94"/>
-      <c r="E112" s="94"/>
-      <c r="F112" s="93"/>
-      <c r="G112" s="94"/>
+      <c r="B112" s="104"/>
+      <c r="C112" s="104"/>
+      <c r="D112" s="104"/>
+      <c r="E112" s="104"/>
+      <c r="F112" s="103"/>
+      <c r="G112" s="104"/>
       <c r="H112" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="I112" s="94"/>
-      <c r="J112" s="94"/>
+      <c r="I112" s="104"/>
+      <c r="J112" s="104"/>
     </row>
     <row r="113" spans="2:10" ht="18">
-      <c r="B113" s="94"/>
-      <c r="C113" s="94"/>
-      <c r="D113" s="94"/>
-      <c r="E113" s="94"/>
-      <c r="F113" s="93"/>
-      <c r="G113" s="94"/>
+      <c r="B113" s="104"/>
+      <c r="C113" s="104"/>
+      <c r="D113" s="104"/>
+      <c r="E113" s="104"/>
+      <c r="F113" s="103"/>
+      <c r="G113" s="104"/>
       <c r="H113" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="I113" s="94"/>
-      <c r="J113" s="94"/>
+      <c r="I113" s="104"/>
+      <c r="J113" s="104"/>
     </row>
     <row r="116" spans="2:10" ht="35.25" customHeight="1">
       <c r="B116" s="73" t="s">
@@ -4140,21 +4170,21 @@
       <c r="H116" s="73"/>
     </row>
     <row r="117" spans="2:10" ht="37.5" customHeight="1">
-      <c r="B117" s="64" t="s">
+      <c r="B117" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="C117" s="64"/>
-      <c r="D117" s="64"/>
-      <c r="E117" s="64"/>
-      <c r="F117" s="64"/>
-      <c r="G117" s="64"/>
-      <c r="H117" s="64"/>
+      <c r="C117" s="66"/>
+      <c r="D117" s="66"/>
+      <c r="E117" s="66"/>
+      <c r="F117" s="66"/>
+      <c r="G117" s="66"/>
+      <c r="H117" s="66"/>
     </row>
     <row r="118" spans="2:10" ht="32.25" customHeight="1">
-      <c r="B118" s="98" t="s">
+      <c r="B118" s="108" t="s">
         <v>85</v>
       </c>
-      <c r="C118" s="98"/>
+      <c r="C118" s="108"/>
       <c r="D118" s="33" t="s">
         <v>86</v>
       </c>
@@ -4172,23 +4202,23 @@
       </c>
     </row>
     <row r="119" spans="2:10" ht="27.75" customHeight="1">
-      <c r="B119" s="65" t="s">
+      <c r="B119" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="C119" s="65"/>
-      <c r="D119" s="99" t="s">
+      <c r="C119" s="69"/>
+      <c r="D119" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="E119" s="99" t="s">
+      <c r="E119" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="F119" s="99" t="s">
+      <c r="F119" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="G119" s="99" t="s">
+      <c r="G119" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="H119" s="99" t="s">
+      <c r="H119" s="67" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4199,11 +4229,11 @@
       <c r="C120" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D120" s="100"/>
-      <c r="E120" s="100"/>
-      <c r="F120" s="100"/>
-      <c r="G120" s="100"/>
-      <c r="H120" s="100"/>
+      <c r="D120" s="68"/>
+      <c r="E120" s="68"/>
+      <c r="F120" s="68"/>
+      <c r="G120" s="68"/>
+      <c r="H120" s="68"/>
     </row>
     <row r="121" spans="2:10" ht="20.25">
       <c r="B121" s="36" t="s">
@@ -4219,198 +4249,198 @@
       <c r="H121" s="34"/>
     </row>
     <row r="122" spans="2:10" ht="20.25">
-      <c r="B122" s="67" t="s">
+      <c r="B122" s="53" t="s">
         <v>108</v>
       </c>
       <c r="C122" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D122" s="67" t="s">
+      <c r="D122" s="53" t="s">
         <v>110</v>
       </c>
       <c r="E122" s="30"/>
-      <c r="F122" s="67"/>
-      <c r="G122" s="67"/>
-      <c r="H122" s="67"/>
+      <c r="F122" s="53"/>
+      <c r="G122" s="53"/>
+      <c r="H122" s="53"/>
     </row>
     <row r="123" spans="2:10" ht="20.25">
-      <c r="B123" s="67"/>
+      <c r="B123" s="53"/>
       <c r="C123" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D123" s="67"/>
+      <c r="D123" s="53"/>
       <c r="E123" s="30"/>
-      <c r="F123" s="67"/>
-      <c r="G123" s="67"/>
-      <c r="H123" s="67"/>
+      <c r="F123" s="53"/>
+      <c r="G123" s="53"/>
+      <c r="H123" s="53"/>
     </row>
     <row r="124" spans="2:10" ht="20.25">
-      <c r="B124" s="67"/>
+      <c r="B124" s="53"/>
       <c r="C124" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D124" s="67"/>
+      <c r="D124" s="53"/>
       <c r="E124" s="30"/>
-      <c r="F124" s="67"/>
-      <c r="G124" s="67"/>
-      <c r="H124" s="67"/>
+      <c r="F124" s="53"/>
+      <c r="G124" s="53"/>
+      <c r="H124" s="53"/>
     </row>
     <row r="125" spans="2:10" ht="20.25">
-      <c r="B125" s="67"/>
+      <c r="B125" s="53"/>
       <c r="C125" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D125" s="67"/>
+      <c r="D125" s="53"/>
       <c r="E125" s="31"/>
-      <c r="F125" s="67"/>
-      <c r="G125" s="67"/>
-      <c r="H125" s="67"/>
+      <c r="F125" s="53"/>
+      <c r="G125" s="53"/>
+      <c r="H125" s="53"/>
     </row>
     <row r="126" spans="2:10" ht="20.25">
-      <c r="B126" s="67"/>
+      <c r="B126" s="53"/>
       <c r="C126" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D126" s="67"/>
+      <c r="D126" s="53"/>
       <c r="E126" s="30"/>
-      <c r="F126" s="67"/>
-      <c r="G126" s="67"/>
-      <c r="H126" s="67"/>
+      <c r="F126" s="53"/>
+      <c r="G126" s="53"/>
+      <c r="H126" s="53"/>
     </row>
     <row r="127" spans="2:10" ht="20.25">
-      <c r="B127" s="67"/>
+      <c r="B127" s="53"/>
       <c r="C127" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D127" s="67"/>
+      <c r="D127" s="53"/>
       <c r="E127" s="30"/>
-      <c r="F127" s="67"/>
-      <c r="G127" s="67"/>
-      <c r="H127" s="67"/>
+      <c r="F127" s="53"/>
+      <c r="G127" s="53"/>
+      <c r="H127" s="53"/>
     </row>
     <row r="128" spans="2:10" ht="20.25">
-      <c r="B128" s="67"/>
+      <c r="B128" s="53"/>
       <c r="C128" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="D128" s="67"/>
+      <c r="D128" s="53"/>
       <c r="E128" s="31"/>
-      <c r="F128" s="67"/>
-      <c r="G128" s="67"/>
-      <c r="H128" s="67"/>
+      <c r="F128" s="53"/>
+      <c r="G128" s="53"/>
+      <c r="H128" s="53"/>
     </row>
     <row r="129" spans="2:8" ht="20.25">
-      <c r="B129" s="67"/>
+      <c r="B129" s="53"/>
       <c r="C129" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D129" s="67"/>
+      <c r="D129" s="53"/>
       <c r="E129" s="32"/>
-      <c r="F129" s="67"/>
-      <c r="G129" s="67"/>
-      <c r="H129" s="67"/>
+      <c r="F129" s="53"/>
+      <c r="G129" s="53"/>
+      <c r="H129" s="53"/>
     </row>
     <row r="130" spans="2:8" ht="20.25">
-      <c r="B130" s="67" t="s">
+      <c r="B130" s="53" t="s">
         <v>109</v>
       </c>
       <c r="C130" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D130" s="67"/>
+      <c r="D130" s="53"/>
       <c r="E130" s="30"/>
-      <c r="F130" s="67"/>
-      <c r="G130" s="67"/>
-      <c r="H130" s="67"/>
+      <c r="F130" s="53"/>
+      <c r="G130" s="53"/>
+      <c r="H130" s="53"/>
     </row>
     <row r="131" spans="2:8" ht="20.25">
-      <c r="B131" s="67"/>
+      <c r="B131" s="53"/>
       <c r="C131" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D131" s="67"/>
+      <c r="D131" s="53"/>
       <c r="E131" s="30"/>
-      <c r="F131" s="67"/>
-      <c r="G131" s="67"/>
-      <c r="H131" s="67"/>
+      <c r="F131" s="53"/>
+      <c r="G131" s="53"/>
+      <c r="H131" s="53"/>
     </row>
     <row r="132" spans="2:8" ht="20.25">
-      <c r="B132" s="67"/>
+      <c r="B132" s="53"/>
       <c r="C132" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D132" s="67"/>
+      <c r="D132" s="53"/>
       <c r="E132" s="30"/>
-      <c r="F132" s="67"/>
-      <c r="G132" s="67"/>
-      <c r="H132" s="67"/>
+      <c r="F132" s="53"/>
+      <c r="G132" s="53"/>
+      <c r="H132" s="53"/>
     </row>
     <row r="133" spans="2:8" ht="20.25">
-      <c r="B133" s="67"/>
+      <c r="B133" s="53"/>
       <c r="C133" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D133" s="67"/>
+      <c r="D133" s="53"/>
       <c r="E133" s="30"/>
-      <c r="F133" s="67"/>
-      <c r="G133" s="67"/>
-      <c r="H133" s="67"/>
+      <c r="F133" s="53"/>
+      <c r="G133" s="53"/>
+      <c r="H133" s="53"/>
     </row>
     <row r="134" spans="2:8" ht="20.25">
-      <c r="B134" s="67"/>
+      <c r="B134" s="53"/>
       <c r="C134" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D134" s="67"/>
+      <c r="D134" s="53"/>
       <c r="E134" s="30"/>
-      <c r="F134" s="67"/>
-      <c r="G134" s="67"/>
-      <c r="H134" s="67"/>
+      <c r="F134" s="53"/>
+      <c r="G134" s="53"/>
+      <c r="H134" s="53"/>
     </row>
     <row r="135" spans="2:8" ht="20.25">
-      <c r="B135" s="67"/>
+      <c r="B135" s="53"/>
       <c r="C135" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D135" s="67"/>
+      <c r="D135" s="53"/>
       <c r="E135" s="30"/>
-      <c r="F135" s="67"/>
-      <c r="G135" s="67"/>
-      <c r="H135" s="67"/>
+      <c r="F135" s="53"/>
+      <c r="G135" s="53"/>
+      <c r="H135" s="53"/>
     </row>
     <row r="136" spans="2:8" ht="20.25">
-      <c r="B136" s="67"/>
+      <c r="B136" s="53"/>
       <c r="C136" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="D136" s="67"/>
+      <c r="D136" s="53"/>
       <c r="E136" s="30"/>
-      <c r="F136" s="67"/>
-      <c r="G136" s="67"/>
-      <c r="H136" s="67"/>
+      <c r="F136" s="53"/>
+      <c r="G136" s="53"/>
+      <c r="H136" s="53"/>
     </row>
     <row r="137" spans="2:8" ht="20.25">
-      <c r="B137" s="67"/>
+      <c r="B137" s="53"/>
       <c r="C137" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D137" s="67"/>
+      <c r="D137" s="53"/>
       <c r="E137" s="30"/>
-      <c r="F137" s="67"/>
-      <c r="G137" s="67"/>
-      <c r="H137" s="67"/>
+      <c r="F137" s="53"/>
+      <c r="G137" s="53"/>
+      <c r="H137" s="53"/>
     </row>
     <row r="138" spans="2:8">
       <c r="F138" s="28"/>
     </row>
     <row r="142" spans="2:8" ht="37.5" customHeight="1">
-      <c r="B142" s="95" t="s">
+      <c r="B142" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="C142" s="96"/>
-      <c r="D142" s="96"/>
-      <c r="E142" s="96"/>
-      <c r="F142" s="97"/>
+      <c r="C142" s="106"/>
+      <c r="D142" s="106"/>
+      <c r="E142" s="106"/>
+      <c r="F142" s="107"/>
       <c r="G142" s="20"/>
       <c r="H142" s="20"/>
     </row>
@@ -4429,10 +4459,10 @@
       <c r="B144" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C144" s="68" t="s">
+      <c r="C144" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="D144" s="68"/>
+      <c r="D144" s="90"/>
       <c r="E144" s="24" t="s">
         <v>77</v>
       </c>
@@ -4446,10 +4476,10 @@
       <c r="B145" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C145" s="57" t="s">
+      <c r="C145" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="D145" s="57"/>
+      <c r="D145" s="54"/>
       <c r="E145" s="25" t="s">
         <v>79</v>
       </c>
@@ -4460,7 +4490,7 @@
       <c r="H145" s="20"/>
     </row>
     <row r="146" spans="2:9" ht="29.25" customHeight="1">
-      <c r="B146" s="59" t="s">
+      <c r="B146" s="55" t="s">
         <v>80</v>
       </c>
       <c r="C146" s="27" t="s">
@@ -4469,25 +4499,25 @@
       <c r="D146" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="E146" s="59" t="s">
+      <c r="E146" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="F146" s="59" t="s">
+      <c r="F146" s="55" t="s">
         <v>83</v>
       </c>
       <c r="G146" s="20"/>
       <c r="H146" s="20"/>
     </row>
     <row r="147" spans="2:9" ht="30" customHeight="1">
-      <c r="B147" s="59"/>
+      <c r="B147" s="55"/>
       <c r="C147" s="27" t="s">
         <v>34</v>
       </c>
       <c r="D147" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="E147" s="59"/>
-      <c r="F147" s="59"/>
+      <c r="E147" s="55"/>
+      <c r="F147" s="55"/>
       <c r="G147" s="20"/>
       <c r="H147" s="20"/>
     </row>
@@ -4501,34 +4531,34 @@
       <c r="H148" s="20"/>
     </row>
     <row r="149" spans="2:9" ht="38.25" customHeight="1">
-      <c r="B149" s="61" t="s">
+      <c r="B149" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="C149" s="61"/>
-      <c r="D149" s="61"/>
-      <c r="E149" s="61"/>
-      <c r="F149" s="61"/>
-      <c r="G149" s="61"/>
-      <c r="H149" s="61"/>
-      <c r="I149" s="61"/>
+      <c r="C149" s="51"/>
+      <c r="D149" s="51"/>
+      <c r="E149" s="51"/>
+      <c r="F149" s="51"/>
+      <c r="G149" s="51"/>
+      <c r="H149" s="51"/>
+      <c r="I149" s="51"/>
     </row>
     <row r="150" spans="2:9" ht="36" customHeight="1">
-      <c r="B150" s="56" t="s">
+      <c r="B150" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="C150" s="56"/>
-      <c r="D150" s="56"/>
-      <c r="E150" s="56"/>
-      <c r="F150" s="56"/>
-      <c r="G150" s="56"/>
-      <c r="H150" s="56"/>
-      <c r="I150" s="56"/>
+      <c r="C150" s="52"/>
+      <c r="D150" s="52"/>
+      <c r="E150" s="52"/>
+      <c r="F150" s="52"/>
+      <c r="G150" s="52"/>
+      <c r="H150" s="52"/>
+      <c r="I150" s="52"/>
     </row>
     <row r="151" spans="2:9" ht="27.75" customHeight="1">
-      <c r="B151" s="57" t="s">
+      <c r="B151" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="C151" s="57"/>
+      <c r="C151" s="54"/>
       <c r="D151" s="26" t="s">
         <v>86</v>
       </c>
@@ -4549,10 +4579,10 @@
       </c>
     </row>
     <row r="152" spans="2:9" ht="30.75" customHeight="1">
-      <c r="B152" s="59" t="s">
+      <c r="B152" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="C152" s="59"/>
+      <c r="C152" s="55"/>
       <c r="D152" s="27" t="s">
         <v>44</v>
       </c>
@@ -4601,7 +4631,7 @@
       <c r="I154" s="29"/>
     </row>
     <row r="155" spans="2:9" ht="20.25">
-      <c r="B155" s="67" t="s">
+      <c r="B155" s="53" t="s">
         <v>108</v>
       </c>
       <c r="C155" s="15" t="s">
@@ -4615,7 +4645,7 @@
       <c r="I155" s="29"/>
     </row>
     <row r="156" spans="2:9" ht="20.25">
-      <c r="B156" s="67"/>
+      <c r="B156" s="53"/>
       <c r="C156" s="15" t="s">
         <v>101</v>
       </c>
@@ -4627,7 +4657,7 @@
       <c r="I156" s="29"/>
     </row>
     <row r="157" spans="2:9" ht="20.25">
-      <c r="B157" s="67"/>
+      <c r="B157" s="53"/>
       <c r="C157" s="15" t="s">
         <v>102</v>
       </c>
@@ -4639,7 +4669,7 @@
       <c r="I157" s="29"/>
     </row>
     <row r="158" spans="2:9" ht="20.25">
-      <c r="B158" s="67"/>
+      <c r="B158" s="53"/>
       <c r="C158" s="15" t="s">
         <v>103</v>
       </c>
@@ -4651,7 +4681,7 @@
       <c r="I158" s="29"/>
     </row>
     <row r="159" spans="2:9" ht="20.25">
-      <c r="B159" s="67"/>
+      <c r="B159" s="53"/>
       <c r="C159" s="15" t="s">
         <v>104</v>
       </c>
@@ -4663,7 +4693,7 @@
       <c r="I159" s="29"/>
     </row>
     <row r="160" spans="2:9" ht="20.25">
-      <c r="B160" s="67"/>
+      <c r="B160" s="53"/>
       <c r="C160" s="15" t="s">
         <v>105</v>
       </c>
@@ -4675,7 +4705,7 @@
       <c r="I160" s="29"/>
     </row>
     <row r="161" spans="2:9" ht="20.25">
-      <c r="B161" s="67"/>
+      <c r="B161" s="53"/>
       <c r="C161" s="15" t="s">
         <v>106</v>
       </c>
@@ -4687,7 +4717,7 @@
       <c r="I161" s="29"/>
     </row>
     <row r="162" spans="2:9" ht="20.25">
-      <c r="B162" s="67"/>
+      <c r="B162" s="53"/>
       <c r="C162" s="15" t="s">
         <v>107</v>
       </c>
@@ -4699,7 +4729,7 @@
       <c r="I162" s="29"/>
     </row>
     <row r="163" spans="2:9" ht="20.25">
-      <c r="B163" s="67" t="s">
+      <c r="B163" s="53" t="s">
         <v>109</v>
       </c>
       <c r="C163" s="15" t="s">
@@ -4713,7 +4743,7 @@
       <c r="I163" s="29"/>
     </row>
     <row r="164" spans="2:9" ht="20.25">
-      <c r="B164" s="67"/>
+      <c r="B164" s="53"/>
       <c r="C164" s="15" t="s">
         <v>101</v>
       </c>
@@ -4725,7 +4755,7 @@
       <c r="I164" s="29"/>
     </row>
     <row r="165" spans="2:9" ht="20.25">
-      <c r="B165" s="67"/>
+      <c r="B165" s="53"/>
       <c r="C165" s="15" t="s">
         <v>102</v>
       </c>
@@ -4737,7 +4767,7 @@
       <c r="I165" s="29"/>
     </row>
     <row r="166" spans="2:9" ht="20.25">
-      <c r="B166" s="67"/>
+      <c r="B166" s="53"/>
       <c r="C166" s="15" t="s">
         <v>103</v>
       </c>
@@ -4749,7 +4779,7 @@
       <c r="I166" s="29"/>
     </row>
     <row r="167" spans="2:9" ht="20.25">
-      <c r="B167" s="67"/>
+      <c r="B167" s="53"/>
       <c r="C167" s="15" t="s">
         <v>104</v>
       </c>
@@ -4761,7 +4791,7 @@
       <c r="I167" s="29"/>
     </row>
     <row r="168" spans="2:9" ht="20.25">
-      <c r="B168" s="67"/>
+      <c r="B168" s="53"/>
       <c r="C168" s="15" t="s">
         <v>105</v>
       </c>
@@ -4773,7 +4803,7 @@
       <c r="I168" s="29"/>
     </row>
     <row r="169" spans="2:9" ht="20.25">
-      <c r="B169" s="67"/>
+      <c r="B169" s="53"/>
       <c r="C169" s="15" t="s">
         <v>106</v>
       </c>
@@ -4785,7 +4815,7 @@
       <c r="I169" s="29"/>
     </row>
     <row r="170" spans="2:9" ht="20.25">
-      <c r="B170" s="67"/>
+      <c r="B170" s="53"/>
       <c r="C170" s="15" t="s">
         <v>107</v>
       </c>
@@ -4797,69 +4827,34 @@
       <c r="I170" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="114">
-    <mergeCell ref="B149:I149"/>
-    <mergeCell ref="B150:I150"/>
-    <mergeCell ref="B155:B162"/>
-    <mergeCell ref="B163:B170"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="G21:H22"/>
-    <mergeCell ref="G23:H27"/>
-    <mergeCell ref="B117:H117"/>
-    <mergeCell ref="B122:B129"/>
-    <mergeCell ref="B130:B137"/>
-    <mergeCell ref="D122:D137"/>
-    <mergeCell ref="G122:G137"/>
-    <mergeCell ref="H122:H137"/>
-    <mergeCell ref="F122:F137"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="H119:H120"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="H7:H14"/>
-    <mergeCell ref="G10:G14"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="D9:D14"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E14"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F69:H69"/>
-    <mergeCell ref="F70:H70"/>
-    <mergeCell ref="B67:I67"/>
-    <mergeCell ref="B68:I68"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H64"/>
-    <mergeCell ref="B58:B64"/>
-    <mergeCell ref="D58:D64"/>
-    <mergeCell ref="E58:E64"/>
-    <mergeCell ref="G60:G64"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F59:G59"/>
+  <mergeCells count="115">
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="I21:I27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="F73:F77"/>
+    <mergeCell ref="B73:B77"/>
+    <mergeCell ref="E73:E77"/>
+    <mergeCell ref="H73:H77"/>
+    <mergeCell ref="G73:G77"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="C73:C77"/>
+    <mergeCell ref="D73:D77"/>
+    <mergeCell ref="I73:I77"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="G70:I70"/>
     <mergeCell ref="F146:F147"/>
     <mergeCell ref="B146:B147"/>
     <mergeCell ref="C144:D144"/>
@@ -4884,34 +4879,70 @@
     <mergeCell ref="B118:C118"/>
     <mergeCell ref="B119:C119"/>
     <mergeCell ref="B116:H116"/>
-    <mergeCell ref="F73:F77"/>
-    <mergeCell ref="I71:I77"/>
-    <mergeCell ref="B73:B77"/>
-    <mergeCell ref="E73:E77"/>
-    <mergeCell ref="H73:H77"/>
-    <mergeCell ref="G73:G77"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="C73:C77"/>
-    <mergeCell ref="D73:D77"/>
+    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H64"/>
+    <mergeCell ref="B58:B64"/>
+    <mergeCell ref="D58:D64"/>
+    <mergeCell ref="E58:E64"/>
+    <mergeCell ref="G60:G64"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="H7:H14"/>
+    <mergeCell ref="G10:G14"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E14"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
     <mergeCell ref="F23:F27"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="I21:I27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="B149:I149"/>
+    <mergeCell ref="B150:I150"/>
+    <mergeCell ref="B155:B162"/>
+    <mergeCell ref="B163:B170"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="G23:H27"/>
+    <mergeCell ref="B117:H117"/>
+    <mergeCell ref="B122:B129"/>
+    <mergeCell ref="B130:B137"/>
+    <mergeCell ref="D122:D137"/>
+    <mergeCell ref="G122:G137"/>
+    <mergeCell ref="H122:H137"/>
+    <mergeCell ref="F122:F137"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="F63:F64"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Packet.xlsx
+++ b/Packet.xlsx
@@ -414,9 +414,6 @@
     <t>11 : I2C/HMI Status</t>
   </si>
   <si>
-    <t>0x01 : HMI Status</t>
-  </si>
-  <si>
     <t xml:space="preserve">0x00 : I2C
 0x01 : HMI STATUS </t>
   </si>
@@ -466,33 +463,60 @@
 CHECKSTATUS : 3</t>
   </si>
   <si>
-    <t>NON  : 0
+    <t>60bit</t>
+  </si>
+  <si>
+    <t>Hmi_Data [3] … [63]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60bit  </t>
+  </si>
+  <si>
+    <t>8 bit [4]</t>
+  </si>
+  <si>
+    <t>58 bit [5] … [63]</t>
+  </si>
+  <si>
+    <t>0x01 : HMI Status
+0x02 : LOGIN Status</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NON  : 0
 LOGIN : 1
-REQUEST : 2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>REQUEST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 2
 GET_STATUS : 3
 RES_STATUS : 4</t>
-  </si>
-  <si>
-    <t>60bit</t>
-  </si>
-  <si>
-    <t>Hmi_Data [3] … [63]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60bit  </t>
-  </si>
-  <si>
-    <t>8 bit [4]</t>
-  </si>
-  <si>
-    <t>58 bit [5] … [63]</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,6 +547,14 @@
     </font>
     <font>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -928,6 +960,18 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -981,6 +1025,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1018,20 +1077,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1043,6 +1102,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1090,77 +1167,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2974,8 +3006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:N170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73:G77"/>
+    <sheetView tabSelected="1" topLeftCell="D67" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I73" sqref="I73:I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -2985,7 +3017,7 @@
     <col min="3" max="3" width="36.375" style="6" customWidth="1"/>
     <col min="4" max="4" width="48.375" style="6" customWidth="1"/>
     <col min="5" max="5" width="26.25" style="6" customWidth="1"/>
-    <col min="6" max="6" width="27.875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="35.875" style="6" customWidth="1"/>
     <col min="7" max="7" width="33.875" style="6" customWidth="1"/>
     <col min="8" max="8" width="30.625" style="6" customWidth="1"/>
     <col min="9" max="9" width="36.375" style="6" customWidth="1"/>
@@ -2996,43 +3028,43 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" ht="24.75" customHeight="1">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
     </row>
     <row r="4" spans="2:14" ht="24.75" customHeight="1">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="2:14" ht="36.950000000000003" customHeight="1">
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
       <c r="E5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="66"/>
+      <c r="G5" s="70"/>
       <c r="H5" s="1" t="s">
         <v>28</v>
       </c>
@@ -3043,18 +3075,18 @@
       <c r="N5" s="7"/>
     </row>
     <row r="6" spans="2:14" ht="24" customHeight="1">
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F6" s="69" t="s">
+      <c r="F6" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="69"/>
+      <c r="G6" s="78"/>
       <c r="H6" s="2" t="s">
         <v>11</v>
       </c>
@@ -3075,16 +3107,16 @@
       <c r="D7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="70" t="s">
+      <c r="E7" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="G7" s="70" t="s">
+      <c r="F7" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="75" t="s">
+      <c r="H7" s="84" t="s">
         <v>23</v>
       </c>
       <c r="I7" s="11"/>
@@ -3104,10 +3136,10 @@
       <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="76"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="85"/>
       <c r="I8" s="11"/>
       <c r="J8" s="19"/>
       <c r="K8" s="8"/>
@@ -3116,16 +3148,16 @@
       <c r="N8" s="8"/>
     </row>
     <row r="9" spans="2:14" ht="23.25" customHeight="1">
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="83" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="74" t="s">
+      <c r="E9" s="83" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="4" t="s">
@@ -3134,7 +3166,7 @@
       <c r="G9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="76"/>
+      <c r="H9" s="85"/>
       <c r="I9" s="11"/>
       <c r="J9" s="19"/>
       <c r="K9" s="8"/>
@@ -3143,19 +3175,19 @@
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="2:14" ht="24" customHeight="1">
-      <c r="B10" s="74"/>
+      <c r="B10" s="83"/>
       <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="74"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="83"/>
       <c r="F10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="78" t="s">
+      <c r="G10" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="76"/>
+      <c r="H10" s="85"/>
       <c r="I10" s="11"/>
       <c r="J10" s="19"/>
       <c r="K10" s="8"/>
@@ -3164,54 +3196,54 @@
       <c r="N10" s="8"/>
     </row>
     <row r="11" spans="2:14" ht="20.25">
-      <c r="B11" s="74"/>
-      <c r="C11" s="71" t="s">
+      <c r="B11" s="83"/>
+      <c r="C11" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="72" t="s">
+      <c r="D11" s="57"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="79"/>
-      <c r="H11" s="76"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="85"/>
       <c r="I11" s="11"/>
       <c r="J11" s="19"/>
     </row>
     <row r="12" spans="2:14" ht="20.25">
-      <c r="B12" s="74"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="76"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="85"/>
       <c r="I12" s="11"/>
       <c r="J12" s="19"/>
     </row>
     <row r="13" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B13" s="74"/>
-      <c r="C13" s="82" t="s">
+      <c r="B13" s="83"/>
+      <c r="C13" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="84" t="s">
-        <v>124</v>
-      </c>
-      <c r="G13" s="79"/>
-      <c r="H13" s="76"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="88"/>
+      <c r="H13" s="85"/>
       <c r="I13" s="11"/>
       <c r="J13" s="19"/>
     </row>
     <row r="14" spans="2:14" ht="42" customHeight="1">
-      <c r="B14" s="74"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="77"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="86"/>
       <c r="I14" s="11"/>
       <c r="J14" s="19"/>
     </row>
@@ -3224,61 +3256,61 @@
       <c r="C16" s="8"/>
     </row>
     <row r="17" spans="2:9" ht="23.25">
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
     </row>
     <row r="18" spans="2:9" ht="23.25">
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
     </row>
     <row r="19" spans="2:9" ht="23.25">
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
       <c r="E19" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="116"/>
-      <c r="G19" s="114" t="s">
+      <c r="F19" s="51"/>
+      <c r="G19" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="H19" s="115"/>
+      <c r="H19" s="126"/>
       <c r="I19" s="48"/>
     </row>
     <row r="20" spans="2:9" ht="23.25">
-      <c r="B20" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
+      <c r="B20" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
       <c r="E20" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="F20" s="117" t="s">
-        <v>127</v>
-      </c>
-      <c r="G20" s="118" t="s">
-        <v>140</v>
-      </c>
-      <c r="H20" s="119"/>
+      <c r="G20" s="127" t="s">
+        <v>138</v>
+      </c>
+      <c r="H20" s="128"/>
       <c r="I20" s="49"/>
     </row>
     <row r="21" spans="2:9" ht="23.25">
@@ -3291,17 +3323,17 @@
       <c r="D21" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="110" t="s">
+      <c r="E21" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="112" t="s">
-        <v>127</v>
-      </c>
-      <c r="G21" s="56" t="s">
-        <v>141</v>
-      </c>
-      <c r="H21" s="57"/>
-      <c r="I21" s="110"/>
+      <c r="F21" s="123" t="s">
+        <v>126</v>
+      </c>
+      <c r="G21" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="H21" s="61"/>
+      <c r="I21" s="121"/>
     </row>
     <row r="22" spans="2:9" ht="23.25">
       <c r="B22" s="47" t="s">
@@ -3313,73 +3345,73 @@
       <c r="D22" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="110"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="110"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="124"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="121"/>
     </row>
     <row r="23" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B23" s="111" t="s">
+      <c r="B23" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="D23" s="109" t="s">
+      <c r="D23" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="111" t="s">
+      <c r="E23" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="G23" s="60" t="s">
-        <v>131</v>
-      </c>
-      <c r="H23" s="61"/>
-      <c r="I23" s="110"/>
+      <c r="F23" s="90" t="s">
+        <v>143</v>
+      </c>
+      <c r="G23" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="H23" s="65"/>
+      <c r="I23" s="121"/>
     </row>
     <row r="24" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B24" s="111"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="110"/>
+      <c r="B24" s="122"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="122"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="121"/>
     </row>
     <row r="25" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B25" s="111"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="110"/>
+      <c r="B25" s="122"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="121"/>
     </row>
     <row r="26" spans="2:9" ht="26.25" customHeight="1">
-      <c r="B26" s="111"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="110"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="121"/>
     </row>
     <row r="27" spans="2:9" ht="45" customHeight="1">
-      <c r="B27" s="111"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="110"/>
+      <c r="B27" s="122"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="121"/>
     </row>
     <row r="28" spans="2:9">
       <c r="C28" s="8"/>
@@ -3401,44 +3433,44 @@
       <c r="F51" s="9"/>
     </row>
     <row r="52" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B52" s="73" t="s">
+      <c r="B52" s="82" t="s">
         <v>120</v>
       </c>
-      <c r="C52" s="73"/>
-      <c r="D52" s="73"/>
-      <c r="E52" s="73"/>
-      <c r="F52" s="73"/>
-      <c r="G52" s="73"/>
-      <c r="H52" s="73"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="82"/>
+      <c r="E52" s="82"/>
+      <c r="F52" s="82"/>
+      <c r="G52" s="82"/>
+      <c r="H52" s="82"/>
       <c r="I52" s="11"/>
       <c r="J52" s="11"/>
     </row>
     <row r="53" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B53" s="73" t="s">
+      <c r="B53" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="C53" s="73"/>
-      <c r="D53" s="73"/>
-      <c r="E53" s="73"/>
-      <c r="F53" s="73"/>
-      <c r="G53" s="73"/>
-      <c r="H53" s="73"/>
+      <c r="C53" s="82"/>
+      <c r="D53" s="82"/>
+      <c r="E53" s="82"/>
+      <c r="F53" s="82"/>
+      <c r="G53" s="82"/>
+      <c r="H53" s="82"/>
       <c r="I53" s="11"/>
       <c r="J53" s="11"/>
     </row>
     <row r="54" spans="2:10" ht="39" customHeight="1">
-      <c r="B54" s="66" t="s">
+      <c r="B54" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="66"/>
-      <c r="D54" s="66"/>
+      <c r="C54" s="70"/>
+      <c r="D54" s="70"/>
       <c r="E54" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F54" s="66" t="s">
+      <c r="F54" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="G54" s="66"/>
+      <c r="G54" s="70"/>
       <c r="H54" s="1" t="s">
         <v>28</v>
       </c>
@@ -3446,18 +3478,18 @@
       <c r="J54" s="12"/>
     </row>
     <row r="55" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B55" s="69" t="s">
+      <c r="B55" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="69"/>
-      <c r="D55" s="69"/>
+      <c r="C55" s="78"/>
+      <c r="D55" s="78"/>
       <c r="E55" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F55" s="69" t="s">
+      <c r="F55" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="G55" s="69"/>
+      <c r="G55" s="78"/>
       <c r="H55" s="2" t="s">
         <v>11</v>
       </c>
@@ -3474,16 +3506,16 @@
       <c r="D56" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E56" s="70" t="s">
+      <c r="E56" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="F56" s="70" t="s">
+      <c r="F56" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="G56" s="70" t="s">
+      <c r="G56" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="H56" s="75" t="s">
+      <c r="H56" s="84" t="s">
         <v>23</v>
       </c>
       <c r="I56" s="12"/>
@@ -3499,113 +3531,113 @@
       <c r="D57" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E57" s="70"/>
-      <c r="F57" s="70"/>
-      <c r="G57" s="70"/>
-      <c r="H57" s="76"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="79"/>
+      <c r="G57" s="79"/>
+      <c r="H57" s="85"/>
       <c r="I57" s="11"/>
       <c r="J57" s="11"/>
     </row>
     <row r="58" spans="2:10" ht="20.25" customHeight="1">
-      <c r="B58" s="74" t="s">
+      <c r="B58" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="C58" s="82" t="s">
+      <c r="C58" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="72" t="s">
+      <c r="D58" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="E58" s="74" t="s">
+      <c r="E58" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="F58" s="86" t="s">
+      <c r="F58" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="G58" s="87"/>
-      <c r="H58" s="76"/>
+      <c r="G58" s="96"/>
+      <c r="H58" s="85"/>
       <c r="I58" s="11"/>
       <c r="J58" s="11"/>
     </row>
     <row r="59" spans="2:10" ht="20.25" customHeight="1">
-      <c r="B59" s="74"/>
-      <c r="C59" s="83"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="74"/>
-      <c r="F59" s="88" t="s">
+      <c r="B59" s="83"/>
+      <c r="C59" s="75"/>
+      <c r="D59" s="81"/>
+      <c r="E59" s="83"/>
+      <c r="F59" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="G59" s="89"/>
-      <c r="H59" s="76"/>
+      <c r="G59" s="98"/>
+      <c r="H59" s="85"/>
       <c r="I59" s="11"/>
       <c r="J59" s="11"/>
     </row>
     <row r="60" spans="2:10" ht="20.25">
-      <c r="B60" s="74"/>
+      <c r="B60" s="83"/>
       <c r="C60" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="53"/>
-      <c r="E60" s="74"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="83"/>
       <c r="F60" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G60" s="78" t="s">
+      <c r="G60" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="H60" s="76"/>
+      <c r="H60" s="85"/>
       <c r="I60" s="11"/>
       <c r="J60" s="11"/>
     </row>
     <row r="61" spans="2:10" ht="20.25" customHeight="1">
-      <c r="B61" s="74"/>
-      <c r="C61" s="71" t="s">
+      <c r="B61" s="83"/>
+      <c r="C61" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="D61" s="53"/>
-      <c r="E61" s="74"/>
-      <c r="F61" s="72" t="s">
+      <c r="D61" s="57"/>
+      <c r="E61" s="83"/>
+      <c r="F61" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="G61" s="79"/>
-      <c r="H61" s="76"/>
+      <c r="G61" s="88"/>
+      <c r="H61" s="85"/>
       <c r="I61" s="11"/>
       <c r="J61" s="11"/>
     </row>
     <row r="62" spans="2:10" ht="20.25">
-      <c r="B62" s="74"/>
-      <c r="C62" s="71"/>
-      <c r="D62" s="53"/>
-      <c r="E62" s="74"/>
-      <c r="F62" s="53"/>
-      <c r="G62" s="79"/>
-      <c r="H62" s="76"/>
+      <c r="B62" s="83"/>
+      <c r="C62" s="80"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="83"/>
+      <c r="F62" s="57"/>
+      <c r="G62" s="88"/>
+      <c r="H62" s="85"/>
       <c r="I62" s="11"/>
       <c r="J62" s="11"/>
     </row>
     <row r="63" spans="2:10" ht="30" customHeight="1">
-      <c r="B63" s="74"/>
-      <c r="C63" s="82" t="s">
+      <c r="B63" s="83"/>
+      <c r="C63" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="D63" s="53"/>
-      <c r="E63" s="74"/>
-      <c r="F63" s="84" t="s">
+      <c r="D63" s="57"/>
+      <c r="E63" s="83"/>
+      <c r="F63" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="G63" s="79"/>
-      <c r="H63" s="76"/>
+      <c r="G63" s="88"/>
+      <c r="H63" s="85"/>
       <c r="I63" s="11"/>
       <c r="J63" s="11"/>
     </row>
     <row r="64" spans="2:10" ht="33.75" customHeight="1">
-      <c r="B64" s="74"/>
-      <c r="C64" s="83"/>
-      <c r="D64" s="53"/>
-      <c r="E64" s="74"/>
-      <c r="F64" s="85"/>
-      <c r="G64" s="80"/>
-      <c r="H64" s="77"/>
+      <c r="B64" s="83"/>
+      <c r="C64" s="75"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="83"/>
+      <c r="F64" s="77"/>
+      <c r="G64" s="89"/>
+      <c r="H64" s="86"/>
     </row>
     <row r="65" spans="2:10" ht="20.25">
       <c r="B65" s="12"/>
@@ -3626,60 +3658,60 @@
       <c r="H66" s="46"/>
     </row>
     <row r="67" spans="2:10" ht="20.25">
-      <c r="B67" s="73" t="s">
+      <c r="B67" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="C67" s="73"/>
-      <c r="D67" s="73"/>
-      <c r="E67" s="73"/>
-      <c r="F67" s="73"/>
-      <c r="G67" s="73"/>
-      <c r="H67" s="73"/>
-      <c r="I67" s="73"/>
+      <c r="C67" s="82"/>
+      <c r="D67" s="82"/>
+      <c r="E67" s="82"/>
+      <c r="F67" s="82"/>
+      <c r="G67" s="82"/>
+      <c r="H67" s="82"/>
+      <c r="I67" s="82"/>
     </row>
     <row r="68" spans="2:10" ht="20.25">
-      <c r="B68" s="73" t="s">
+      <c r="B68" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="C68" s="73"/>
-      <c r="D68" s="73"/>
-      <c r="E68" s="73"/>
-      <c r="F68" s="73"/>
-      <c r="G68" s="73"/>
-      <c r="H68" s="73"/>
-      <c r="I68" s="73"/>
+      <c r="C68" s="82"/>
+      <c r="D68" s="82"/>
+      <c r="E68" s="82"/>
+      <c r="F68" s="82"/>
+      <c r="G68" s="82"/>
+      <c r="H68" s="82"/>
+      <c r="I68" s="82"/>
     </row>
     <row r="69" spans="2:10" ht="20.25">
-      <c r="B69" s="66" t="s">
+      <c r="B69" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C69" s="66"/>
-      <c r="D69" s="66"/>
+      <c r="C69" s="70"/>
+      <c r="D69" s="70"/>
       <c r="E69" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="F69" s="127"/>
-      <c r="G69" s="120" t="s">
+      <c r="F69" s="53"/>
+      <c r="G69" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="H69" s="121"/>
-      <c r="I69" s="122"/>
+      <c r="H69" s="100"/>
+      <c r="I69" s="101"/>
     </row>
     <row r="70" spans="2:10" ht="20.25">
-      <c r="B70" s="69" t="s">
+      <c r="B70" s="78" t="s">
+        <v>128</v>
+      </c>
+      <c r="C70" s="78"/>
+      <c r="D70" s="78"/>
+      <c r="E70" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="C70" s="69"/>
-      <c r="D70" s="69"/>
-      <c r="E70" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="F70" s="128"/>
-      <c r="G70" s="123" t="s">
-        <v>142</v>
-      </c>
-      <c r="H70" s="124"/>
-      <c r="I70" s="125"/>
+      <c r="F70" s="54"/>
+      <c r="G70" s="102" t="s">
+        <v>140</v>
+      </c>
+      <c r="H70" s="103"/>
+      <c r="I70" s="104"/>
       <c r="J70" s="28"/>
     </row>
     <row r="71" spans="2:10" ht="23.25" customHeight="1">
@@ -3692,20 +3724,20 @@
       <c r="D71" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="E71" s="70" t="s">
+      <c r="E71" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="F71" s="75" t="s">
+      <c r="F71" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="G71" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="H71" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="G71" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="H71" s="50" t="s">
-        <v>134</v>
-      </c>
       <c r="I71" s="50" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J71" s="28"/>
     </row>
@@ -3719,144 +3751,144 @@
       <c r="D72" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E72" s="70"/>
-      <c r="F72" s="77"/>
+      <c r="E72" s="79"/>
+      <c r="F72" s="86"/>
       <c r="G72" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H72" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="I72" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="J72" s="28"/>
+    </row>
+    <row r="73" spans="2:10" ht="36" customHeight="1">
+      <c r="B73" s="83" t="s">
+        <v>116</v>
+      </c>
+      <c r="C73" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="D73" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="E73" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="F73" s="90" t="s">
         <v>143</v>
       </c>
-      <c r="I72" s="50" t="s">
+      <c r="G73" s="90" t="s">
+        <v>137</v>
+      </c>
+      <c r="H73" s="76" t="s">
         <v>144</v>
       </c>
-      <c r="J72" s="28"/>
-    </row>
-    <row r="73" spans="2:10" ht="36" customHeight="1">
-      <c r="B73" s="74" t="s">
-        <v>116</v>
-      </c>
-      <c r="C73" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="D73" s="53" t="s">
-        <v>118</v>
-      </c>
-      <c r="E73" s="74" t="s">
-        <v>119</v>
-      </c>
-      <c r="F73" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="G73" s="109" t="s">
-        <v>138</v>
-      </c>
-      <c r="H73" s="84" t="s">
-        <v>139</v>
-      </c>
-      <c r="I73" s="78" t="s">
-        <v>137</v>
+      <c r="I73" s="87" t="s">
+        <v>136</v>
       </c>
       <c r="J73" s="28"/>
     </row>
     <row r="74" spans="2:10" ht="37.5" customHeight="1">
-      <c r="B74" s="74"/>
-      <c r="C74" s="53"/>
-      <c r="D74" s="53"/>
-      <c r="E74" s="74"/>
-      <c r="F74" s="55"/>
-      <c r="G74" s="55"/>
-      <c r="H74" s="126"/>
-      <c r="I74" s="79"/>
+      <c r="B74" s="83"/>
+      <c r="C74" s="57"/>
+      <c r="D74" s="57"/>
+      <c r="E74" s="83"/>
+      <c r="F74" s="59"/>
+      <c r="G74" s="59"/>
+      <c r="H74" s="120"/>
+      <c r="I74" s="88"/>
       <c r="J74" s="28"/>
     </row>
     <row r="75" spans="2:10" ht="14.25" customHeight="1">
-      <c r="B75" s="74"/>
-      <c r="C75" s="53"/>
-      <c r="D75" s="53"/>
-      <c r="E75" s="74"/>
-      <c r="F75" s="55"/>
-      <c r="G75" s="55"/>
-      <c r="H75" s="126"/>
-      <c r="I75" s="79"/>
+      <c r="B75" s="83"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="57"/>
+      <c r="E75" s="83"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="59"/>
+      <c r="H75" s="120"/>
+      <c r="I75" s="88"/>
       <c r="J75" s="28"/>
     </row>
     <row r="76" spans="2:10" ht="14.25" customHeight="1">
-      <c r="B76" s="74"/>
-      <c r="C76" s="53"/>
-      <c r="D76" s="53"/>
-      <c r="E76" s="74"/>
-      <c r="F76" s="55"/>
-      <c r="G76" s="55"/>
-      <c r="H76" s="126"/>
-      <c r="I76" s="79"/>
+      <c r="B76" s="83"/>
+      <c r="C76" s="57"/>
+      <c r="D76" s="57"/>
+      <c r="E76" s="83"/>
+      <c r="F76" s="59"/>
+      <c r="G76" s="59"/>
+      <c r="H76" s="120"/>
+      <c r="I76" s="88"/>
       <c r="J76" s="28"/>
     </row>
     <row r="77" spans="2:10" ht="56.25" customHeight="1">
-      <c r="B77" s="74"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="53"/>
-      <c r="E77" s="74"/>
-      <c r="F77" s="55"/>
-      <c r="G77" s="55"/>
-      <c r="H77" s="85"/>
-      <c r="I77" s="80"/>
+      <c r="B77" s="83"/>
+      <c r="C77" s="57"/>
+      <c r="D77" s="57"/>
+      <c r="E77" s="83"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="59"/>
+      <c r="H77" s="77"/>
+      <c r="I77" s="89"/>
       <c r="J77" s="28"/>
     </row>
     <row r="78" spans="2:10" ht="33.75" customHeight="1">
       <c r="H78" s="43"/>
     </row>
     <row r="79" spans="2:10" ht="14.25" customHeight="1">
-      <c r="C79" s="81" t="s">
+      <c r="C79" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="D79" s="81" t="s">
+      <c r="D79" s="73" t="s">
         <v>39</v>
       </c>
       <c r="H79" s="44"/>
     </row>
     <row r="80" spans="2:10" ht="14.25" customHeight="1">
-      <c r="C80" s="81"/>
-      <c r="D80" s="81"/>
+      <c r="C80" s="73"/>
+      <c r="D80" s="73"/>
       <c r="H80" s="44"/>
     </row>
     <row r="81" spans="2:10" ht="20.25">
-      <c r="C81" s="91" t="s">
+      <c r="C81" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="D81" s="91"/>
+      <c r="D81" s="106"/>
     </row>
     <row r="82" spans="2:10" ht="20.25">
-      <c r="C82" s="91" t="s">
+      <c r="C82" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="D82" s="91"/>
+      <c r="D82" s="106"/>
     </row>
     <row r="83" spans="2:10" ht="20.25">
-      <c r="C83" s="91" t="s">
+      <c r="C83" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="D83" s="91"/>
+      <c r="D83" s="106"/>
     </row>
     <row r="84" spans="2:10" ht="20.25">
-      <c r="C84" s="92" t="s">
+      <c r="C84" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="D84" s="93"/>
+      <c r="D84" s="108"/>
     </row>
     <row r="85" spans="2:10" ht="37.5" customHeight="1"/>
     <row r="86" spans="2:10" ht="27" customHeight="1">
-      <c r="B86" s="94" t="s">
+      <c r="B86" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C86" s="95"/>
-      <c r="D86" s="95"/>
-      <c r="E86" s="95"/>
-      <c r="F86" s="95"/>
-      <c r="G86" s="95"/>
-      <c r="H86" s="95"/>
-      <c r="I86" s="95"/>
-      <c r="J86" s="96"/>
+      <c r="C86" s="110"/>
+      <c r="D86" s="110"/>
+      <c r="E86" s="110"/>
+      <c r="F86" s="110"/>
+      <c r="G86" s="110"/>
+      <c r="H86" s="110"/>
+      <c r="I86" s="110"/>
+      <c r="J86" s="111"/>
     </row>
     <row r="87" spans="2:10" ht="36" customHeight="1">
       <c r="B87" s="13" t="s">
@@ -3918,30 +3950,30 @@
       <c r="D89" s="10"/>
     </row>
     <row r="99" spans="2:10" ht="39" customHeight="1">
-      <c r="B99" s="97" t="s">
+      <c r="B99" s="112" t="s">
         <v>71</v>
       </c>
-      <c r="C99" s="98"/>
-      <c r="D99" s="98"/>
-      <c r="E99" s="98"/>
-      <c r="F99" s="98"/>
-      <c r="G99" s="98"/>
-      <c r="H99" s="98"/>
-      <c r="I99" s="98"/>
-      <c r="J99" s="99"/>
+      <c r="C99" s="113"/>
+      <c r="D99" s="113"/>
+      <c r="E99" s="113"/>
+      <c r="F99" s="113"/>
+      <c r="G99" s="113"/>
+      <c r="H99" s="113"/>
+      <c r="I99" s="113"/>
+      <c r="J99" s="114"/>
     </row>
     <row r="100" spans="2:10" ht="36" customHeight="1">
-      <c r="B100" s="100" t="s">
+      <c r="B100" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="C100" s="101"/>
-      <c r="D100" s="101"/>
-      <c r="E100" s="101"/>
-      <c r="F100" s="101"/>
-      <c r="G100" s="101"/>
-      <c r="H100" s="101"/>
-      <c r="I100" s="101"/>
-      <c r="J100" s="102"/>
+      <c r="C100" s="116"/>
+      <c r="D100" s="116"/>
+      <c r="E100" s="116"/>
+      <c r="F100" s="116"/>
+      <c r="G100" s="116"/>
+      <c r="H100" s="116"/>
+      <c r="I100" s="116"/>
+      <c r="J100" s="117"/>
     </row>
     <row r="101" spans="2:10" ht="44.25" customHeight="1">
       <c r="B101" s="18" t="s">
@@ -4002,189 +4034,189 @@
       </c>
     </row>
     <row r="103" spans="2:10" ht="24.75" customHeight="1">
-      <c r="B103" s="103" t="s">
+      <c r="B103" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="C103" s="104" t="s">
+      <c r="C103" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="D103" s="103" t="s">
+      <c r="D103" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="E103" s="103" t="s">
+      <c r="E103" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="F103" s="103"/>
-      <c r="G103" s="104" t="s">
+      <c r="F103" s="118"/>
+      <c r="G103" s="119" t="s">
         <v>69</v>
       </c>
       <c r="H103" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="I103" s="103" t="s">
+      <c r="I103" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="J103" s="104" t="s">
+      <c r="J103" s="119" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="104" spans="2:10" ht="24.75" customHeight="1">
-      <c r="B104" s="104"/>
-      <c r="C104" s="104"/>
-      <c r="D104" s="104"/>
-      <c r="E104" s="104"/>
-      <c r="F104" s="103"/>
-      <c r="G104" s="104"/>
+      <c r="B104" s="119"/>
+      <c r="C104" s="119"/>
+      <c r="D104" s="119"/>
+      <c r="E104" s="119"/>
+      <c r="F104" s="118"/>
+      <c r="G104" s="119"/>
       <c r="H104" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I104" s="104"/>
-      <c r="J104" s="104"/>
+      <c r="I104" s="119"/>
+      <c r="J104" s="119"/>
     </row>
     <row r="105" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B105" s="104"/>
-      <c r="C105" s="104"/>
-      <c r="D105" s="104"/>
-      <c r="E105" s="104"/>
-      <c r="F105" s="103"/>
-      <c r="G105" s="104"/>
+      <c r="B105" s="119"/>
+      <c r="C105" s="119"/>
+      <c r="D105" s="119"/>
+      <c r="E105" s="119"/>
+      <c r="F105" s="118"/>
+      <c r="G105" s="119"/>
       <c r="H105" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="I105" s="104"/>
-      <c r="J105" s="104"/>
+      <c r="I105" s="119"/>
+      <c r="J105" s="119"/>
     </row>
     <row r="106" spans="2:10" ht="18">
-      <c r="B106" s="104"/>
-      <c r="C106" s="104"/>
-      <c r="D106" s="104"/>
-      <c r="E106" s="104"/>
-      <c r="F106" s="103"/>
-      <c r="G106" s="104"/>
+      <c r="B106" s="119"/>
+      <c r="C106" s="119"/>
+      <c r="D106" s="119"/>
+      <c r="E106" s="119"/>
+      <c r="F106" s="118"/>
+      <c r="G106" s="119"/>
       <c r="H106" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="I106" s="104"/>
-      <c r="J106" s="104"/>
+      <c r="I106" s="119"/>
+      <c r="J106" s="119"/>
     </row>
     <row r="107" spans="2:10" ht="18">
-      <c r="B107" s="104"/>
-      <c r="C107" s="104"/>
-      <c r="D107" s="104"/>
-      <c r="E107" s="104"/>
-      <c r="F107" s="103"/>
-      <c r="G107" s="104"/>
+      <c r="B107" s="119"/>
+      <c r="C107" s="119"/>
+      <c r="D107" s="119"/>
+      <c r="E107" s="119"/>
+      <c r="F107" s="118"/>
+      <c r="G107" s="119"/>
       <c r="H107" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="I107" s="104"/>
-      <c r="J107" s="104"/>
+      <c r="I107" s="119"/>
+      <c r="J107" s="119"/>
     </row>
     <row r="108" spans="2:10" ht="18">
-      <c r="B108" s="104"/>
-      <c r="C108" s="104"/>
-      <c r="D108" s="104"/>
-      <c r="E108" s="104"/>
-      <c r="F108" s="103"/>
-      <c r="G108" s="104"/>
+      <c r="B108" s="119"/>
+      <c r="C108" s="119"/>
+      <c r="D108" s="119"/>
+      <c r="E108" s="119"/>
+      <c r="F108" s="118"/>
+      <c r="G108" s="119"/>
       <c r="H108" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="I108" s="104"/>
-      <c r="J108" s="104"/>
+      <c r="I108" s="119"/>
+      <c r="J108" s="119"/>
     </row>
     <row r="109" spans="2:10" ht="18">
-      <c r="B109" s="104"/>
-      <c r="C109" s="104"/>
-      <c r="D109" s="104"/>
-      <c r="E109" s="104"/>
-      <c r="F109" s="103"/>
-      <c r="G109" s="104"/>
+      <c r="B109" s="119"/>
+      <c r="C109" s="119"/>
+      <c r="D109" s="119"/>
+      <c r="E109" s="119"/>
+      <c r="F109" s="118"/>
+      <c r="G109" s="119"/>
       <c r="H109" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="I109" s="104"/>
-      <c r="J109" s="104"/>
+      <c r="I109" s="119"/>
+      <c r="J109" s="119"/>
     </row>
     <row r="110" spans="2:10" ht="18">
-      <c r="B110" s="104"/>
-      <c r="C110" s="104"/>
-      <c r="D110" s="104"/>
-      <c r="E110" s="104"/>
-      <c r="F110" s="103"/>
-      <c r="G110" s="104"/>
+      <c r="B110" s="119"/>
+      <c r="C110" s="119"/>
+      <c r="D110" s="119"/>
+      <c r="E110" s="119"/>
+      <c r="F110" s="118"/>
+      <c r="G110" s="119"/>
       <c r="H110" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="I110" s="104"/>
-      <c r="J110" s="104"/>
+      <c r="I110" s="119"/>
+      <c r="J110" s="119"/>
     </row>
     <row r="111" spans="2:10" ht="18">
-      <c r="B111" s="104"/>
-      <c r="C111" s="104"/>
-      <c r="D111" s="104"/>
-      <c r="E111" s="104"/>
-      <c r="F111" s="103"/>
-      <c r="G111" s="104"/>
+      <c r="B111" s="119"/>
+      <c r="C111" s="119"/>
+      <c r="D111" s="119"/>
+      <c r="E111" s="119"/>
+      <c r="F111" s="118"/>
+      <c r="G111" s="119"/>
       <c r="H111" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="I111" s="104"/>
-      <c r="J111" s="104"/>
+      <c r="I111" s="119"/>
+      <c r="J111" s="119"/>
     </row>
     <row r="112" spans="2:10" ht="18">
-      <c r="B112" s="104"/>
-      <c r="C112" s="104"/>
-      <c r="D112" s="104"/>
-      <c r="E112" s="104"/>
-      <c r="F112" s="103"/>
-      <c r="G112" s="104"/>
+      <c r="B112" s="119"/>
+      <c r="C112" s="119"/>
+      <c r="D112" s="119"/>
+      <c r="E112" s="119"/>
+      <c r="F112" s="118"/>
+      <c r="G112" s="119"/>
       <c r="H112" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="I112" s="104"/>
-      <c r="J112" s="104"/>
+      <c r="I112" s="119"/>
+      <c r="J112" s="119"/>
     </row>
     <row r="113" spans="2:10" ht="18">
-      <c r="B113" s="104"/>
-      <c r="C113" s="104"/>
-      <c r="D113" s="104"/>
-      <c r="E113" s="104"/>
-      <c r="F113" s="103"/>
-      <c r="G113" s="104"/>
+      <c r="B113" s="119"/>
+      <c r="C113" s="119"/>
+      <c r="D113" s="119"/>
+      <c r="E113" s="119"/>
+      <c r="F113" s="118"/>
+      <c r="G113" s="119"/>
       <c r="H113" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="I113" s="104"/>
-      <c r="J113" s="104"/>
+      <c r="I113" s="119"/>
+      <c r="J113" s="119"/>
     </row>
     <row r="116" spans="2:10" ht="35.25" customHeight="1">
-      <c r="B116" s="73" t="s">
+      <c r="B116" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="C116" s="73"/>
-      <c r="D116" s="73"/>
-      <c r="E116" s="73"/>
-      <c r="F116" s="73"/>
-      <c r="G116" s="73"/>
-      <c r="H116" s="73"/>
+      <c r="C116" s="82"/>
+      <c r="D116" s="82"/>
+      <c r="E116" s="82"/>
+      <c r="F116" s="82"/>
+      <c r="G116" s="82"/>
+      <c r="H116" s="82"/>
     </row>
     <row r="117" spans="2:10" ht="37.5" customHeight="1">
-      <c r="B117" s="66" t="s">
+      <c r="B117" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="C117" s="66"/>
-      <c r="D117" s="66"/>
-      <c r="E117" s="66"/>
-      <c r="F117" s="66"/>
-      <c r="G117" s="66"/>
-      <c r="H117" s="66"/>
+      <c r="C117" s="70"/>
+      <c r="D117" s="70"/>
+      <c r="E117" s="70"/>
+      <c r="F117" s="70"/>
+      <c r="G117" s="70"/>
+      <c r="H117" s="70"/>
     </row>
     <row r="118" spans="2:10" ht="32.25" customHeight="1">
-      <c r="B118" s="108" t="s">
+      <c r="B118" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="C118" s="108"/>
+      <c r="C118" s="94"/>
       <c r="D118" s="33" t="s">
         <v>86</v>
       </c>
@@ -4202,23 +4234,23 @@
       </c>
     </row>
     <row r="119" spans="2:10" ht="27.75" customHeight="1">
-      <c r="B119" s="69" t="s">
+      <c r="B119" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="C119" s="69"/>
-      <c r="D119" s="67" t="s">
+      <c r="C119" s="78"/>
+      <c r="D119" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="E119" s="67" t="s">
+      <c r="E119" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="F119" s="67" t="s">
+      <c r="F119" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="G119" s="67" t="s">
+      <c r="G119" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="H119" s="67" t="s">
+      <c r="H119" s="71" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4229,11 +4261,11 @@
       <c r="C120" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D120" s="68"/>
-      <c r="E120" s="68"/>
-      <c r="F120" s="68"/>
-      <c r="G120" s="68"/>
-      <c r="H120" s="68"/>
+      <c r="D120" s="72"/>
+      <c r="E120" s="72"/>
+      <c r="F120" s="72"/>
+      <c r="G120" s="72"/>
+      <c r="H120" s="72"/>
     </row>
     <row r="121" spans="2:10" ht="20.25">
       <c r="B121" s="36" t="s">
@@ -4249,198 +4281,198 @@
       <c r="H121" s="34"/>
     </row>
     <row r="122" spans="2:10" ht="20.25">
-      <c r="B122" s="53" t="s">
+      <c r="B122" s="57" t="s">
         <v>108</v>
       </c>
       <c r="C122" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D122" s="53" t="s">
+      <c r="D122" s="57" t="s">
         <v>110</v>
       </c>
       <c r="E122" s="30"/>
-      <c r="F122" s="53"/>
-      <c r="G122" s="53"/>
-      <c r="H122" s="53"/>
+      <c r="F122" s="57"/>
+      <c r="G122" s="57"/>
+      <c r="H122" s="57"/>
     </row>
     <row r="123" spans="2:10" ht="20.25">
-      <c r="B123" s="53"/>
+      <c r="B123" s="57"/>
       <c r="C123" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D123" s="53"/>
+      <c r="D123" s="57"/>
       <c r="E123" s="30"/>
-      <c r="F123" s="53"/>
-      <c r="G123" s="53"/>
-      <c r="H123" s="53"/>
+      <c r="F123" s="57"/>
+      <c r="G123" s="57"/>
+      <c r="H123" s="57"/>
     </row>
     <row r="124" spans="2:10" ht="20.25">
-      <c r="B124" s="53"/>
+      <c r="B124" s="57"/>
       <c r="C124" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D124" s="53"/>
+      <c r="D124" s="57"/>
       <c r="E124" s="30"/>
-      <c r="F124" s="53"/>
-      <c r="G124" s="53"/>
-      <c r="H124" s="53"/>
+      <c r="F124" s="57"/>
+      <c r="G124" s="57"/>
+      <c r="H124" s="57"/>
     </row>
     <row r="125" spans="2:10" ht="20.25">
-      <c r="B125" s="53"/>
+      <c r="B125" s="57"/>
       <c r="C125" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D125" s="53"/>
+      <c r="D125" s="57"/>
       <c r="E125" s="31"/>
-      <c r="F125" s="53"/>
-      <c r="G125" s="53"/>
-      <c r="H125" s="53"/>
+      <c r="F125" s="57"/>
+      <c r="G125" s="57"/>
+      <c r="H125" s="57"/>
     </row>
     <row r="126" spans="2:10" ht="20.25">
-      <c r="B126" s="53"/>
+      <c r="B126" s="57"/>
       <c r="C126" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D126" s="53"/>
+      <c r="D126" s="57"/>
       <c r="E126" s="30"/>
-      <c r="F126" s="53"/>
-      <c r="G126" s="53"/>
-      <c r="H126" s="53"/>
+      <c r="F126" s="57"/>
+      <c r="G126" s="57"/>
+      <c r="H126" s="57"/>
     </row>
     <row r="127" spans="2:10" ht="20.25">
-      <c r="B127" s="53"/>
+      <c r="B127" s="57"/>
       <c r="C127" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D127" s="53"/>
+      <c r="D127" s="57"/>
       <c r="E127" s="30"/>
-      <c r="F127" s="53"/>
-      <c r="G127" s="53"/>
-      <c r="H127" s="53"/>
+      <c r="F127" s="57"/>
+      <c r="G127" s="57"/>
+      <c r="H127" s="57"/>
     </row>
     <row r="128" spans="2:10" ht="20.25">
-      <c r="B128" s="53"/>
+      <c r="B128" s="57"/>
       <c r="C128" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="D128" s="53"/>
+      <c r="D128" s="57"/>
       <c r="E128" s="31"/>
-      <c r="F128" s="53"/>
-      <c r="G128" s="53"/>
-      <c r="H128" s="53"/>
+      <c r="F128" s="57"/>
+      <c r="G128" s="57"/>
+      <c r="H128" s="57"/>
     </row>
     <row r="129" spans="2:8" ht="20.25">
-      <c r="B129" s="53"/>
+      <c r="B129" s="57"/>
       <c r="C129" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D129" s="53"/>
+      <c r="D129" s="57"/>
       <c r="E129" s="32"/>
-      <c r="F129" s="53"/>
-      <c r="G129" s="53"/>
-      <c r="H129" s="53"/>
+      <c r="F129" s="57"/>
+      <c r="G129" s="57"/>
+      <c r="H129" s="57"/>
     </row>
     <row r="130" spans="2:8" ht="20.25">
-      <c r="B130" s="53" t="s">
+      <c r="B130" s="57" t="s">
         <v>109</v>
       </c>
       <c r="C130" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D130" s="53"/>
+      <c r="D130" s="57"/>
       <c r="E130" s="30"/>
-      <c r="F130" s="53"/>
-      <c r="G130" s="53"/>
-      <c r="H130" s="53"/>
+      <c r="F130" s="57"/>
+      <c r="G130" s="57"/>
+      <c r="H130" s="57"/>
     </row>
     <row r="131" spans="2:8" ht="20.25">
-      <c r="B131" s="53"/>
+      <c r="B131" s="57"/>
       <c r="C131" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D131" s="53"/>
+      <c r="D131" s="57"/>
       <c r="E131" s="30"/>
-      <c r="F131" s="53"/>
-      <c r="G131" s="53"/>
-      <c r="H131" s="53"/>
+      <c r="F131" s="57"/>
+      <c r="G131" s="57"/>
+      <c r="H131" s="57"/>
     </row>
     <row r="132" spans="2:8" ht="20.25">
-      <c r="B132" s="53"/>
+      <c r="B132" s="57"/>
       <c r="C132" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D132" s="53"/>
+      <c r="D132" s="57"/>
       <c r="E132" s="30"/>
-      <c r="F132" s="53"/>
-      <c r="G132" s="53"/>
-      <c r="H132" s="53"/>
+      <c r="F132" s="57"/>
+      <c r="G132" s="57"/>
+      <c r="H132" s="57"/>
     </row>
     <row r="133" spans="2:8" ht="20.25">
-      <c r="B133" s="53"/>
+      <c r="B133" s="57"/>
       <c r="C133" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D133" s="53"/>
+      <c r="D133" s="57"/>
       <c r="E133" s="30"/>
-      <c r="F133" s="53"/>
-      <c r="G133" s="53"/>
-      <c r="H133" s="53"/>
+      <c r="F133" s="57"/>
+      <c r="G133" s="57"/>
+      <c r="H133" s="57"/>
     </row>
     <row r="134" spans="2:8" ht="20.25">
-      <c r="B134" s="53"/>
+      <c r="B134" s="57"/>
       <c r="C134" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D134" s="53"/>
+      <c r="D134" s="57"/>
       <c r="E134" s="30"/>
-      <c r="F134" s="53"/>
-      <c r="G134" s="53"/>
-      <c r="H134" s="53"/>
+      <c r="F134" s="57"/>
+      <c r="G134" s="57"/>
+      <c r="H134" s="57"/>
     </row>
     <row r="135" spans="2:8" ht="20.25">
-      <c r="B135" s="53"/>
+      <c r="B135" s="57"/>
       <c r="C135" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D135" s="53"/>
+      <c r="D135" s="57"/>
       <c r="E135" s="30"/>
-      <c r="F135" s="53"/>
-      <c r="G135" s="53"/>
-      <c r="H135" s="53"/>
+      <c r="F135" s="57"/>
+      <c r="G135" s="57"/>
+      <c r="H135" s="57"/>
     </row>
     <row r="136" spans="2:8" ht="20.25">
-      <c r="B136" s="53"/>
+      <c r="B136" s="57"/>
       <c r="C136" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="D136" s="53"/>
+      <c r="D136" s="57"/>
       <c r="E136" s="30"/>
-      <c r="F136" s="53"/>
-      <c r="G136" s="53"/>
-      <c r="H136" s="53"/>
+      <c r="F136" s="57"/>
+      <c r="G136" s="57"/>
+      <c r="H136" s="57"/>
     </row>
     <row r="137" spans="2:8" ht="20.25">
-      <c r="B137" s="53"/>
+      <c r="B137" s="57"/>
       <c r="C137" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D137" s="53"/>
+      <c r="D137" s="57"/>
       <c r="E137" s="30"/>
-      <c r="F137" s="53"/>
-      <c r="G137" s="53"/>
-      <c r="H137" s="53"/>
+      <c r="F137" s="57"/>
+      <c r="G137" s="57"/>
+      <c r="H137" s="57"/>
     </row>
     <row r="138" spans="2:8">
       <c r="F138" s="28"/>
     </row>
     <row r="142" spans="2:8" ht="37.5" customHeight="1">
-      <c r="B142" s="105" t="s">
+      <c r="B142" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="C142" s="106"/>
-      <c r="D142" s="106"/>
-      <c r="E142" s="106"/>
-      <c r="F142" s="107"/>
+      <c r="C142" s="92"/>
+      <c r="D142" s="92"/>
+      <c r="E142" s="92"/>
+      <c r="F142" s="93"/>
       <c r="G142" s="20"/>
       <c r="H142" s="20"/>
     </row>
@@ -4459,10 +4491,10 @@
       <c r="B144" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C144" s="90" t="s">
+      <c r="C144" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="D144" s="90"/>
+      <c r="D144" s="105"/>
       <c r="E144" s="24" t="s">
         <v>77</v>
       </c>
@@ -4476,10 +4508,10 @@
       <c r="B145" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C145" s="54" t="s">
+      <c r="C145" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="D145" s="54"/>
+      <c r="D145" s="58"/>
       <c r="E145" s="25" t="s">
         <v>79</v>
       </c>
@@ -4490,7 +4522,7 @@
       <c r="H145" s="20"/>
     </row>
     <row r="146" spans="2:9" ht="29.25" customHeight="1">
-      <c r="B146" s="55" t="s">
+      <c r="B146" s="59" t="s">
         <v>80</v>
       </c>
       <c r="C146" s="27" t="s">
@@ -4499,25 +4531,25 @@
       <c r="D146" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="E146" s="55" t="s">
+      <c r="E146" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="F146" s="55" t="s">
+      <c r="F146" s="59" t="s">
         <v>83</v>
       </c>
       <c r="G146" s="20"/>
       <c r="H146" s="20"/>
     </row>
     <row r="147" spans="2:9" ht="30" customHeight="1">
-      <c r="B147" s="55"/>
+      <c r="B147" s="59"/>
       <c r="C147" s="27" t="s">
         <v>34</v>
       </c>
       <c r="D147" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="E147" s="55"/>
-      <c r="F147" s="55"/>
+      <c r="E147" s="59"/>
+      <c r="F147" s="59"/>
       <c r="G147" s="20"/>
       <c r="H147" s="20"/>
     </row>
@@ -4531,34 +4563,34 @@
       <c r="H148" s="20"/>
     </row>
     <row r="149" spans="2:9" ht="38.25" customHeight="1">
-      <c r="B149" s="51" t="s">
+      <c r="B149" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="C149" s="51"/>
-      <c r="D149" s="51"/>
-      <c r="E149" s="51"/>
-      <c r="F149" s="51"/>
-      <c r="G149" s="51"/>
-      <c r="H149" s="51"/>
-      <c r="I149" s="51"/>
+      <c r="C149" s="55"/>
+      <c r="D149" s="55"/>
+      <c r="E149" s="55"/>
+      <c r="F149" s="55"/>
+      <c r="G149" s="55"/>
+      <c r="H149" s="55"/>
+      <c r="I149" s="55"/>
     </row>
     <row r="150" spans="2:9" ht="36" customHeight="1">
-      <c r="B150" s="52" t="s">
+      <c r="B150" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="C150" s="52"/>
-      <c r="D150" s="52"/>
-      <c r="E150" s="52"/>
-      <c r="F150" s="52"/>
-      <c r="G150" s="52"/>
-      <c r="H150" s="52"/>
-      <c r="I150" s="52"/>
+      <c r="C150" s="56"/>
+      <c r="D150" s="56"/>
+      <c r="E150" s="56"/>
+      <c r="F150" s="56"/>
+      <c r="G150" s="56"/>
+      <c r="H150" s="56"/>
+      <c r="I150" s="56"/>
     </row>
     <row r="151" spans="2:9" ht="27.75" customHeight="1">
-      <c r="B151" s="54" t="s">
+      <c r="B151" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="C151" s="54"/>
+      <c r="C151" s="58"/>
       <c r="D151" s="26" t="s">
         <v>86</v>
       </c>
@@ -4579,10 +4611,10 @@
       </c>
     </row>
     <row r="152" spans="2:9" ht="30.75" customHeight="1">
-      <c r="B152" s="55" t="s">
+      <c r="B152" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="C152" s="55"/>
+      <c r="C152" s="59"/>
       <c r="D152" s="27" t="s">
         <v>44</v>
       </c>
@@ -4631,7 +4663,7 @@
       <c r="I154" s="29"/>
     </row>
     <row r="155" spans="2:9" ht="20.25">
-      <c r="B155" s="53" t="s">
+      <c r="B155" s="57" t="s">
         <v>108</v>
       </c>
       <c r="C155" s="15" t="s">
@@ -4645,7 +4677,7 @@
       <c r="I155" s="29"/>
     </row>
     <row r="156" spans="2:9" ht="20.25">
-      <c r="B156" s="53"/>
+      <c r="B156" s="57"/>
       <c r="C156" s="15" t="s">
         <v>101</v>
       </c>
@@ -4657,7 +4689,7 @@
       <c r="I156" s="29"/>
     </row>
     <row r="157" spans="2:9" ht="20.25">
-      <c r="B157" s="53"/>
+      <c r="B157" s="57"/>
       <c r="C157" s="15" t="s">
         <v>102</v>
       </c>
@@ -4669,7 +4701,7 @@
       <c r="I157" s="29"/>
     </row>
     <row r="158" spans="2:9" ht="20.25">
-      <c r="B158" s="53"/>
+      <c r="B158" s="57"/>
       <c r="C158" s="15" t="s">
         <v>103</v>
       </c>
@@ -4681,7 +4713,7 @@
       <c r="I158" s="29"/>
     </row>
     <row r="159" spans="2:9" ht="20.25">
-      <c r="B159" s="53"/>
+      <c r="B159" s="57"/>
       <c r="C159" s="15" t="s">
         <v>104</v>
       </c>
@@ -4693,7 +4725,7 @@
       <c r="I159" s="29"/>
     </row>
     <row r="160" spans="2:9" ht="20.25">
-      <c r="B160" s="53"/>
+      <c r="B160" s="57"/>
       <c r="C160" s="15" t="s">
         <v>105</v>
       </c>
@@ -4705,7 +4737,7 @@
       <c r="I160" s="29"/>
     </row>
     <row r="161" spans="2:9" ht="20.25">
-      <c r="B161" s="53"/>
+      <c r="B161" s="57"/>
       <c r="C161" s="15" t="s">
         <v>106</v>
       </c>
@@ -4717,7 +4749,7 @@
       <c r="I161" s="29"/>
     </row>
     <row r="162" spans="2:9" ht="20.25">
-      <c r="B162" s="53"/>
+      <c r="B162" s="57"/>
       <c r="C162" s="15" t="s">
         <v>107</v>
       </c>
@@ -4729,7 +4761,7 @@
       <c r="I162" s="29"/>
     </row>
     <row r="163" spans="2:9" ht="20.25">
-      <c r="B163" s="53" t="s">
+      <c r="B163" s="57" t="s">
         <v>109</v>
       </c>
       <c r="C163" s="15" t="s">
@@ -4743,7 +4775,7 @@
       <c r="I163" s="29"/>
     </row>
     <row r="164" spans="2:9" ht="20.25">
-      <c r="B164" s="53"/>
+      <c r="B164" s="57"/>
       <c r="C164" s="15" t="s">
         <v>101</v>
       </c>
@@ -4755,7 +4787,7 @@
       <c r="I164" s="29"/>
     </row>
     <row r="165" spans="2:9" ht="20.25">
-      <c r="B165" s="53"/>
+      <c r="B165" s="57"/>
       <c r="C165" s="15" t="s">
         <v>102</v>
       </c>
@@ -4767,7 +4799,7 @@
       <c r="I165" s="29"/>
     </row>
     <row r="166" spans="2:9" ht="20.25">
-      <c r="B166" s="53"/>
+      <c r="B166" s="57"/>
       <c r="C166" s="15" t="s">
         <v>103</v>
       </c>
@@ -4779,7 +4811,7 @@
       <c r="I166" s="29"/>
     </row>
     <row r="167" spans="2:9" ht="20.25">
-      <c r="B167" s="53"/>
+      <c r="B167" s="57"/>
       <c r="C167" s="15" t="s">
         <v>104</v>
       </c>
@@ -4791,7 +4823,7 @@
       <c r="I167" s="29"/>
     </row>
     <row r="168" spans="2:9" ht="20.25">
-      <c r="B168" s="53"/>
+      <c r="B168" s="57"/>
       <c r="C168" s="15" t="s">
         <v>105</v>
       </c>
@@ -4803,7 +4835,7 @@
       <c r="I168" s="29"/>
     </row>
     <row r="169" spans="2:9" ht="20.25">
-      <c r="B169" s="53"/>
+      <c r="B169" s="57"/>
       <c r="C169" s="15" t="s">
         <v>106</v>
       </c>
@@ -4815,7 +4847,7 @@
       <c r="I169" s="29"/>
     </row>
     <row r="170" spans="2:9" ht="20.25">
-      <c r="B170" s="53"/>
+      <c r="B170" s="57"/>
       <c r="C170" s="15" t="s">
         <v>107</v>
       </c>
@@ -4828,6 +4860,14 @@
     </row>
   </sheetData>
   <mergeCells count="115">
+    <mergeCell ref="E73:E77"/>
+    <mergeCell ref="H73:H77"/>
+    <mergeCell ref="G73:G77"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="C73:C77"/>
+    <mergeCell ref="D73:D77"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="I21:I27"/>
@@ -4841,18 +4881,6 @@
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
-    <mergeCell ref="F73:F77"/>
-    <mergeCell ref="B73:B77"/>
-    <mergeCell ref="E73:E77"/>
-    <mergeCell ref="H73:H77"/>
-    <mergeCell ref="G73:G77"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="C73:C77"/>
-    <mergeCell ref="D73:D77"/>
-    <mergeCell ref="I73:I77"/>
-    <mergeCell ref="F71:F72"/>
     <mergeCell ref="G69:I69"/>
     <mergeCell ref="G70:I70"/>
     <mergeCell ref="F146:F147"/>
@@ -4875,6 +4903,8 @@
     <mergeCell ref="D103:D113"/>
     <mergeCell ref="E103:E113"/>
     <mergeCell ref="F103:F113"/>
+    <mergeCell ref="F73:F77"/>
+    <mergeCell ref="B73:B77"/>
     <mergeCell ref="B142:F142"/>
     <mergeCell ref="B118:C118"/>
     <mergeCell ref="B119:C119"/>
@@ -4897,6 +4927,8 @@
     <mergeCell ref="F58:G58"/>
     <mergeCell ref="F59:G59"/>
     <mergeCell ref="F55:G55"/>
+    <mergeCell ref="I73:I77"/>
+    <mergeCell ref="F71:F72"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="G7:G8"/>
